--- a/data_analysis.xlsx
+++ b/data_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\interfaces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F7B795-296B-4F30-B6EE-8C07879A045B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD821F4-83EC-420E-95E2-71C133901BBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8775" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="373">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1123,30 +1123,6 @@
     <t>(Min/Max)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Comments about this worksheet:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-One participant (Number 5, in red) was removed from the bounding box counting, and another (Number 2, in red) from the joystick counting due to reasons stated in the comments below.
-One participant from the buttons section responded to the survey but his completion time was not recorded (proctor missed to record his completion time). </t>
-    </r>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
@@ -1170,6 +1146,48 @@
   <si>
     <t xml:space="preserve">When proctor checked the participant's values,  
 the proctor noticed that not all numbers were green. The participant said they were, but that they must have moved a little bit by the proctor. </t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comments about this worksheet:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+One participant (Number 5, in red) was removed from the bounding box counting, and another (Number 2, in red) from the joystick counting due to reasons stated in the comments below.
+One participant from the buttons section responded to the survey but his completion time was not recorded (proctor missed to record his completion time). </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+If time equals N, it means that the participant didn't complete the task in 15 minutes.
+If time equals R, means that for some reason (specified in comments), the participantion wasn't included in our research.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1324,7 +1342,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1375,12 +1393,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1407,6 +1419,36 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1463,7 +1505,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1498,7 +1540,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1506,31 +1548,25 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1558,99 +1594,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="17" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="17" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="15" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="18" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="15" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="18" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="18" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="18" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="14" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="14" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="17" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="17" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="20" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="20" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1668,23 +1653,98 @@
     <xf numFmtId="20" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3869,7 +3929,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -7920,7 +7979,7 @@
   <dimension ref="A2:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7938,42 +7997,42 @@
     <col min="11" max="11" width="48.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="73" t="s">
-        <v>362</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
+    <row r="2" spans="1:26" ht="87" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="83" t="s">
+        <v>372</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
     </row>
     <row r="4" spans="1:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="78"/>
-      <c r="F4" s="81" t="s">
+      <c r="E4" s="88"/>
+      <c r="F4" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="82"/>
-      <c r="H4" s="83" t="s">
+      <c r="G4" s="92"/>
+      <c r="H4" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="84"/>
-      <c r="J4" s="79" t="s">
+      <c r="I4" s="94"/>
+      <c r="J4" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="K4" s="80"/>
+      <c r="K4" s="90"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -8044,28 +8103,28 @@
       <c r="A6" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="90">
+      <c r="B6" s="71">
         <v>0.14444444444444443</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="93">
+      <c r="C6" s="72"/>
+      <c r="D6" s="74">
         <v>0.1388888888888889</v>
       </c>
-      <c r="E6" s="92" t="s">
+      <c r="E6" s="73" t="s">
+        <v>369</v>
+      </c>
+      <c r="F6" s="71">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="G6" s="70"/>
+      <c r="H6" s="71">
+        <v>0.19722222222222222</v>
+      </c>
+      <c r="I6" s="70"/>
+      <c r="J6" s="68" t="s">
         <v>370</v>
       </c>
-      <c r="F6" s="90">
-        <v>0.3263888888888889</v>
-      </c>
-      <c r="G6" s="89"/>
-      <c r="H6" s="90">
-        <v>0.19722222222222222</v>
-      </c>
-      <c r="I6" s="89"/>
-      <c r="J6" s="87">
-        <v>0.625</v>
-      </c>
-      <c r="K6" s="95"/>
+      <c r="K6" s="76"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -8086,29 +8145,29 @@
       <c r="A7" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="90">
+      <c r="B7" s="71">
         <v>0.25416666666666665</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="87">
-        <v>0.625</v>
-      </c>
-      <c r="E7" s="88" t="s">
-        <v>365</v>
-      </c>
-      <c r="F7" s="90">
+      <c r="C7" s="72"/>
+      <c r="D7" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="E7" s="69" t="s">
+        <v>364</v>
+      </c>
+      <c r="F7" s="71">
         <v>0.24027777777777778</v>
       </c>
-      <c r="G7" s="89"/>
-      <c r="H7" s="90">
+      <c r="G7" s="70"/>
+      <c r="H7" s="71">
         <v>0.23194444444444445</v>
       </c>
-      <c r="I7" s="89"/>
-      <c r="J7" s="87">
-        <v>0.38055555555555554</v>
-      </c>
-      <c r="K7" s="88" t="s">
-        <v>369</v>
+      <c r="I7" s="70"/>
+      <c r="J7" s="68" t="s">
+        <v>371</v>
+      </c>
+      <c r="K7" s="69" t="s">
+        <v>368</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -8130,28 +8189,28 @@
       <c r="A8" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="90">
+      <c r="B8" s="71">
         <v>0.14097222222222222</v>
       </c>
-      <c r="C8" s="91"/>
-      <c r="D8" s="87">
-        <v>0.625</v>
-      </c>
-      <c r="E8" s="88" t="s">
-        <v>365</v>
-      </c>
-      <c r="F8" s="90">
+      <c r="C8" s="72"/>
+      <c r="D8" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="E8" s="69" t="s">
+        <v>364</v>
+      </c>
+      <c r="F8" s="71">
         <v>0.61111111111111116</v>
       </c>
-      <c r="G8" s="89"/>
-      <c r="H8" s="90">
+      <c r="G8" s="70"/>
+      <c r="H8" s="71">
         <v>0.25972222222222224</v>
       </c>
-      <c r="I8" s="92"/>
-      <c r="J8" s="87">
-        <v>0.625</v>
-      </c>
-      <c r="K8" s="95"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="K8" s="76"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -8172,28 +8231,28 @@
       <c r="A9" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="90">
+      <c r="B9" s="71">
         <v>0.16875000000000001</v>
       </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="87">
-        <v>0.625</v>
-      </c>
-      <c r="E9" s="88" t="s">
-        <v>365</v>
-      </c>
-      <c r="F9" s="90">
+      <c r="C9" s="72"/>
+      <c r="D9" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="E9" s="69" t="s">
+        <v>364</v>
+      </c>
+      <c r="F9" s="71">
         <v>0.16250000000000001</v>
       </c>
-      <c r="G9" s="89"/>
-      <c r="H9" s="90">
+      <c r="G9" s="70"/>
+      <c r="H9" s="71">
         <v>0.20069444444444445</v>
       </c>
-      <c r="I9" s="89"/>
-      <c r="J9" s="87">
-        <v>0.625</v>
-      </c>
-      <c r="K9" s="95"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="K9" s="76"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -8214,30 +8273,30 @@
       <c r="A10" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="87">
-        <v>4.791666666666667E-2</v>
-      </c>
-      <c r="C10" s="88" t="s">
-        <v>368</v>
-      </c>
-      <c r="D10" s="87">
-        <v>0.625</v>
-      </c>
-      <c r="E10" s="88" t="s">
-        <v>365</v>
-      </c>
-      <c r="F10" s="90">
+      <c r="B10" s="68" t="s">
+        <v>371</v>
+      </c>
+      <c r="C10" s="69" t="s">
+        <v>367</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="E10" s="69" t="s">
+        <v>364</v>
+      </c>
+      <c r="F10" s="71">
         <v>0.21944444444444444</v>
       </c>
-      <c r="G10" s="89"/>
-      <c r="H10" s="90">
+      <c r="G10" s="70"/>
+      <c r="H10" s="71">
         <v>0.38472222222222224</v>
       </c>
-      <c r="I10" s="89"/>
-      <c r="J10" s="87">
-        <v>0.625</v>
-      </c>
-      <c r="K10" s="95"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="K10" s="76"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -8258,30 +8317,30 @@
       <c r="A11" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="90">
+      <c r="B11" s="71">
         <v>0.13819444444444445</v>
       </c>
-      <c r="C11" s="89"/>
-      <c r="D11" s="87">
-        <v>0.625</v>
-      </c>
-      <c r="E11" s="88" t="s">
+      <c r="C11" s="70"/>
+      <c r="D11" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="E11" s="69" t="s">
+        <v>364</v>
+      </c>
+      <c r="F11" s="71">
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="G11" s="70"/>
+      <c r="H11" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="I11" s="69" t="s">
         <v>365</v>
       </c>
-      <c r="F11" s="90">
-        <v>0.13750000000000001</v>
-      </c>
-      <c r="G11" s="89"/>
-      <c r="H11" s="87">
-        <v>0.625</v>
-      </c>
-      <c r="I11" s="88" t="s">
-        <v>366</v>
-      </c>
-      <c r="J11" s="90">
+      <c r="J11" s="71">
         <v>0.38472222222222224</v>
       </c>
-      <c r="K11" s="91"/>
+      <c r="K11" s="72"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -8302,28 +8361,28 @@
       <c r="A12" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="90">
+      <c r="B12" s="71">
         <v>0.15625</v>
       </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="87">
-        <v>0.625</v>
-      </c>
-      <c r="E12" s="88" t="s">
-        <v>365</v>
-      </c>
-      <c r="F12" s="90">
+      <c r="C12" s="70"/>
+      <c r="D12" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="E12" s="69" t="s">
+        <v>364</v>
+      </c>
+      <c r="F12" s="71">
         <v>0.17916666666666667</v>
       </c>
-      <c r="G12" s="89"/>
-      <c r="H12" s="90">
+      <c r="G12" s="70"/>
+      <c r="H12" s="71">
         <v>0.32291666666666669</v>
       </c>
-      <c r="I12" s="89"/>
-      <c r="J12" s="87">
-        <v>0.625</v>
-      </c>
-      <c r="K12" s="96"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="K12" s="77"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -8344,26 +8403,26 @@
       <c r="A13" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="90">
+      <c r="B13" s="71">
         <v>0.21805555555555556</v>
       </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="87">
-        <v>0.625</v>
-      </c>
-      <c r="E13" s="88" t="s">
-        <v>365</v>
-      </c>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="90">
+      <c r="C13" s="70"/>
+      <c r="D13" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="E13" s="69" t="s">
+        <v>364</v>
+      </c>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="71">
         <v>0.38541666666666669</v>
       </c>
-      <c r="I13" s="94"/>
-      <c r="J13" s="87">
-        <v>0.625</v>
-      </c>
-      <c r="K13" s="96"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="K13" s="77"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -8384,26 +8443,26 @@
       <c r="A14" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="90">
+      <c r="B14" s="71">
         <v>0.62361111111111112</v>
       </c>
-      <c r="C14" s="89"/>
-      <c r="D14" s="87">
-        <v>0.625</v>
-      </c>
-      <c r="E14" s="88" t="s">
-        <v>365</v>
-      </c>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="90">
+      <c r="C14" s="70"/>
+      <c r="D14" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="E14" s="69" t="s">
+        <v>364</v>
+      </c>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="71">
         <v>0.38819444444444445</v>
       </c>
-      <c r="I14" s="89"/>
-      <c r="J14" s="87">
-        <v>0.625</v>
-      </c>
-      <c r="K14" s="96"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="K14" s="77"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -8424,26 +8483,26 @@
       <c r="A15" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="87">
-        <v>0.625</v>
-      </c>
-      <c r="C15" s="88" t="s">
-        <v>367</v>
-      </c>
-      <c r="D15" s="87">
-        <v>0.625</v>
-      </c>
-      <c r="E15" s="88" t="s">
-        <v>365</v>
-      </c>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="90">
+      <c r="B15" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="C15" s="69" t="s">
+        <v>366</v>
+      </c>
+      <c r="D15" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="E15" s="69" t="s">
+        <v>364</v>
+      </c>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="71">
         <v>0.16180555555555556</v>
       </c>
-      <c r="I15" s="89"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="98"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="79"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -8464,22 +8523,22 @@
       <c r="A16" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="97"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="87">
-        <v>0.625</v>
-      </c>
-      <c r="E16" s="88" t="s">
-        <v>365</v>
-      </c>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="90">
+      <c r="B16" s="78"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="E16" s="69" t="s">
+        <v>364</v>
+      </c>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="71">
         <v>0.25694444444444442</v>
       </c>
-      <c r="I16" s="89"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="98"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="79"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -36067,13 +36126,13 @@
   </sheetPr>
   <dimension ref="B2:U67"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="4" width="20.59765625" style="37" customWidth="1"/>
+    <col min="2" max="4" width="20.59765625" style="35" customWidth="1"/>
     <col min="5" max="5" width="20.59765625" customWidth="1"/>
     <col min="6" max="6" width="33.9296875" style="20" customWidth="1"/>
     <col min="7" max="7" width="20.59765625" customWidth="1"/>
@@ -36082,52 +36141,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="95" t="s">
         <v>301</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="86" t="s">
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="96" t="s">
         <v>306</v>
       </c>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
     </row>
     <row r="3" spans="2:21" ht="18" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39" t="s">
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37" t="s">
         <v>307</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="37" t="s">
         <v>308</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="M3" s="39" t="s">
+      <c r="M3" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="N3" s="39" t="s">
+      <c r="N3" s="37" t="s">
         <v>68</v>
       </c>
       <c r="Q3" s="10"/>
@@ -36137,45 +36196,45 @@
       <c r="U3" s="10"/>
     </row>
     <row r="4" spans="2:21" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B4" s="53">
+      <c r="B4" s="51">
         <v>1</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D4" s="53">
         <f>3+28/60</f>
         <v>3.4666666666666668</v>
       </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="52" t="s">
+      <c r="E4" s="54"/>
+      <c r="F4" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="49">
         <f>COUNTIF(C4:C12,"Yes")</f>
         <v>8</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="39" t="s">
+      <c r="H4" s="36"/>
+      <c r="I4" s="37" t="s">
         <v>309</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="38">
         <f>G35</f>
         <v>1</v>
       </c>
-      <c r="K4" s="40">
+      <c r="K4" s="38">
         <f>G46</f>
         <v>0.90909090909090906</v>
       </c>
-      <c r="L4" s="40">
+      <c r="L4" s="38">
         <f>G8</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="M4" s="40">
+      <c r="M4" s="38">
         <f>G61</f>
         <v>0.125</v>
       </c>
-      <c r="N4" s="40">
+      <c r="N4" s="38">
         <f>G20</f>
         <v>9.0909090909090912E-2</v>
       </c>
@@ -36186,45 +36245,45 @@
       <c r="U4" s="11"/>
     </row>
     <row r="5" spans="2:21" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B5" s="53">
+      <c r="B5" s="51">
         <v>2</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="53">
         <f>6+6/60</f>
         <v>6.1</v>
       </c>
-      <c r="E5" s="56"/>
-      <c r="F5" s="52" t="s">
+      <c r="E5" s="54"/>
+      <c r="F5" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="49">
         <f>COUNTIF(C4:C12,"No")</f>
         <v>1</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="39" t="s">
+      <c r="H5" s="36"/>
+      <c r="I5" s="37" t="s">
         <v>310</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="38">
         <f>G36</f>
         <v>0</v>
       </c>
-      <c r="K5" s="40">
+      <c r="K5" s="38">
         <f>G47</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="L5" s="40">
+      <c r="L5" s="38">
         <f>G9</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="M5" s="40">
+      <c r="M5" s="38">
         <f>G62</f>
         <v>0.875</v>
       </c>
-      <c r="N5" s="40">
+      <c r="N5" s="38">
         <f>G21</f>
         <v>0.90909090909090906</v>
       </c>
@@ -36235,1325 +36294,1325 @@
       <c r="U5" s="11"/>
     </row>
     <row r="6" spans="2:21" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B6" s="53">
+      <c r="B6" s="51">
         <v>3</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="53">
         <f>3+23/60</f>
         <v>3.3833333333333333</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="52" t="s">
+      <c r="E6" s="54"/>
+      <c r="F6" s="50" t="s">
         <v>298</v>
       </c>
-      <c r="G6" s="51">
+      <c r="G6" s="49">
         <f>COUNT(B4:B12)</f>
         <v>9</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
     </row>
     <row r="7" spans="2:21" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B7" s="53">
+      <c r="B7" s="51">
         <v>4</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="53">
         <f>4+3/60</f>
         <v>4.05</v>
       </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
     </row>
     <row r="8" spans="2:21" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B8" s="53">
+      <c r="B8" s="51">
         <v>5</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="53">
         <f>3+19/60</f>
         <v>3.3166666666666664</v>
       </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="52" t="s">
+      <c r="E8" s="54"/>
+      <c r="F8" s="50" t="s">
         <v>299</v>
       </c>
-      <c r="G8" s="58">
+      <c r="G8" s="56">
         <f>G4/G6</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
     </row>
     <row r="9" spans="2:21" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B9" s="53">
+      <c r="B9" s="51">
         <v>6</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="53">
         <f>3+45/60</f>
         <v>3.75</v>
       </c>
-      <c r="E9" s="56"/>
-      <c r="F9" s="52" t="s">
+      <c r="E9" s="54"/>
+      <c r="F9" s="50" t="s">
         <v>300</v>
       </c>
-      <c r="G9" s="58">
+      <c r="G9" s="56">
         <f>G5/G6</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
     </row>
     <row r="10" spans="2:21" ht="17.25" x14ac:dyDescent="0.45">
-      <c r="B10" s="53">
+      <c r="B10" s="51">
         <v>7</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="53">
         <f>5+14/60</f>
         <v>5.2333333333333334</v>
       </c>
-      <c r="E10" s="56"/>
+      <c r="E10" s="54"/>
       <c r="F10" s="22"/>
       <c r="G10" s="33"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
     </row>
     <row r="11" spans="2:21" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B11" s="53">
+      <c r="B11" s="51">
         <v>8</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D11" s="53">
         <f>14+58/60</f>
         <v>14.966666666666667</v>
       </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="57"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="55"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
     </row>
     <row r="12" spans="2:21" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B12" s="53">
+      <c r="B12" s="51">
         <v>9</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="53">
         <v>15</v>
       </c>
-      <c r="E12" s="56"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="59"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="57"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
     </row>
     <row r="13" spans="2:21" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
     </row>
     <row r="14" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="95" t="s">
         <v>302</v>
       </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
     </row>
     <row r="15" spans="2:21" ht="18" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="51"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="49"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
     </row>
     <row r="16" spans="2:21" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B16" s="53">
+      <c r="B16" s="51">
         <v>1</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="60">
+      <c r="D16" s="58">
         <f>3+20/60</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="E16" s="61"/>
-      <c r="F16" s="52" t="s">
+      <c r="E16" s="59"/>
+      <c r="F16" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="G16" s="51">
+      <c r="G16" s="49">
         <f>COUNTIF(C16:C26,"Yes")</f>
         <v>1</v>
       </c>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
     </row>
     <row r="17" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B17" s="53">
+      <c r="B17" s="51">
         <v>2</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="55">
+      <c r="D17" s="53">
         <v>15</v>
       </c>
-      <c r="E17" s="56"/>
-      <c r="F17" s="52" t="s">
+      <c r="E17" s="54"/>
+      <c r="F17" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="G17" s="51">
+      <c r="G17" s="49">
         <f>COUNTIF(C16:C26,"No")</f>
         <v>10</v>
       </c>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
     </row>
     <row r="18" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B18" s="53">
+      <c r="B18" s="51">
         <v>3</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="55">
+      <c r="D18" s="53">
         <v>15</v>
       </c>
-      <c r="E18" s="56"/>
-      <c r="F18" s="52" t="s">
+      <c r="E18" s="54"/>
+      <c r="F18" s="50" t="s">
         <v>298</v>
       </c>
-      <c r="G18" s="51">
+      <c r="G18" s="49">
         <f>COUNT(B16:B26)</f>
         <v>11</v>
       </c>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
     </row>
     <row r="19" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B19" s="53">
+      <c r="B19" s="51">
         <v>4</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="55">
+      <c r="D19" s="53">
         <v>15</v>
       </c>
-      <c r="E19" s="56"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
     </row>
     <row r="20" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B20" s="53">
+      <c r="B20" s="51">
         <v>5</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="55">
+      <c r="D20" s="53">
         <v>15</v>
       </c>
-      <c r="E20" s="56"/>
-      <c r="F20" s="52" t="s">
+      <c r="E20" s="54"/>
+      <c r="F20" s="50" t="s">
         <v>299</v>
       </c>
-      <c r="G20" s="58">
+      <c r="G20" s="56">
         <f>G16/G18</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
     </row>
     <row r="21" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B21" s="53">
+      <c r="B21" s="51">
         <v>6</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="55">
+      <c r="D21" s="53">
         <v>15</v>
       </c>
-      <c r="E21" s="56"/>
-      <c r="F21" s="52" t="s">
+      <c r="E21" s="54"/>
+      <c r="F21" s="50" t="s">
         <v>300</v>
       </c>
-      <c r="G21" s="58">
+      <c r="G21" s="56">
         <f>G17/G18</f>
         <v>0.90909090909090906</v>
       </c>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
     </row>
     <row r="22" spans="2:14" ht="17.25" x14ac:dyDescent="0.45">
-      <c r="B22" s="53">
+      <c r="B22" s="51">
         <v>7</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="55">
+      <c r="D22" s="53">
         <v>15</v>
       </c>
-      <c r="E22" s="56"/>
+      <c r="E22" s="54"/>
       <c r="F22" s="22"/>
       <c r="G22" s="33"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
     </row>
     <row r="23" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B23" s="53">
+      <c r="B23" s="51">
         <v>8</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="55">
+      <c r="D23" s="53">
         <v>15</v>
       </c>
-      <c r="E23" s="56"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
     </row>
     <row r="24" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B24" s="53">
+      <c r="B24" s="51">
         <v>9</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="55">
+      <c r="D24" s="53">
         <v>15</v>
       </c>
-      <c r="E24" s="56"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
     </row>
     <row r="25" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B25" s="53">
+      <c r="B25" s="51">
         <v>10</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="55">
+      <c r="D25" s="53">
         <v>15</v>
       </c>
-      <c r="E25" s="56"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
     </row>
     <row r="26" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B26" s="53">
+      <c r="B26" s="51">
         <v>11</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="55">
+      <c r="D26" s="53">
         <v>15</v>
       </c>
-      <c r="E26" s="56"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
     </row>
     <row r="27" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
     </row>
     <row r="28" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
     </row>
     <row r="29" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="85" t="s">
+      <c r="B29" s="95" t="s">
         <v>303</v>
       </c>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
     </row>
     <row r="30" spans="2:14" ht="18" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
     </row>
     <row r="31" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B31" s="53">
+      <c r="B31" s="51">
         <v>1</v>
       </c>
-      <c r="C31" s="54" t="s">
+      <c r="C31" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="55">
+      <c r="D31" s="53">
         <f>7+5/60</f>
         <v>7.083333333333333</v>
       </c>
-      <c r="E31" s="56"/>
-      <c r="F31" s="52" t="s">
+      <c r="E31" s="54"/>
+      <c r="F31" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="G31" s="51">
+      <c r="G31" s="49">
         <f>COUNTIF(C31:C37,"Yes")</f>
         <v>7</v>
       </c>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
     </row>
     <row r="32" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B32" s="53">
+      <c r="B32" s="51">
         <v>2</v>
       </c>
-      <c r="C32" s="54" t="s">
+      <c r="C32" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="55">
+      <c r="D32" s="53">
         <f>5+46/60</f>
         <v>5.7666666666666666</v>
       </c>
-      <c r="E32" s="56"/>
-      <c r="F32" s="52" t="s">
+      <c r="E32" s="54"/>
+      <c r="F32" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="G32" s="51">
+      <c r="G32" s="49">
         <f>COUNTIF(C31:C37,"No")</f>
         <v>0</v>
       </c>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
     </row>
     <row r="33" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B33" s="53">
+      <c r="B33" s="51">
         <v>3</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="55">
+      <c r="D33" s="53">
         <f>14+40/60</f>
         <v>14.666666666666666</v>
       </c>
-      <c r="E33" s="56"/>
-      <c r="F33" s="52" t="s">
+      <c r="E33" s="54"/>
+      <c r="F33" s="50" t="s">
         <v>298</v>
       </c>
-      <c r="G33" s="51">
+      <c r="G33" s="49">
         <f>COUNT(B31:B37)</f>
         <v>7</v>
       </c>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
     </row>
     <row r="34" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B34" s="53">
+      <c r="B34" s="51">
         <v>4</v>
       </c>
-      <c r="C34" s="54" t="s">
+      <c r="C34" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="55">
+      <c r="D34" s="53">
         <f>3+54/60</f>
         <v>3.9</v>
       </c>
-      <c r="E34" s="56"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
     </row>
     <row r="35" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B35" s="53">
+      <c r="B35" s="51">
         <v>5</v>
       </c>
-      <c r="C35" s="54" t="s">
+      <c r="C35" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="55">
+      <c r="D35" s="53">
         <f>5+16/60</f>
         <v>5.2666666666666666</v>
       </c>
-      <c r="E35" s="56"/>
-      <c r="F35" s="52" t="s">
+      <c r="E35" s="54"/>
+      <c r="F35" s="50" t="s">
         <v>299</v>
       </c>
-      <c r="G35" s="58">
+      <c r="G35" s="56">
         <f>G31/G33</f>
         <v>1</v>
       </c>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
     </row>
     <row r="36" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B36" s="53">
+      <c r="B36" s="51">
         <v>6</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C36" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="55">
+      <c r="D36" s="53">
         <f>3+18/60</f>
         <v>3.3</v>
       </c>
-      <c r="E36" s="56"/>
-      <c r="F36" s="52" t="s">
+      <c r="E36" s="54"/>
+      <c r="F36" s="50" t="s">
         <v>300</v>
       </c>
-      <c r="G36" s="58">
+      <c r="G36" s="56">
         <f>G32/G33</f>
         <v>0</v>
       </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
     </row>
     <row r="37" spans="2:14" ht="17.25" x14ac:dyDescent="0.45">
-      <c r="B37" s="53">
+      <c r="B37" s="51">
         <v>7</v>
       </c>
-      <c r="C37" s="54" t="s">
+      <c r="C37" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="55">
+      <c r="D37" s="53">
         <f>4+18/60</f>
         <v>4.3</v>
       </c>
-      <c r="E37" s="56"/>
+      <c r="E37" s="54"/>
       <c r="F37" s="22"/>
       <c r="G37" s="33"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
     </row>
     <row r="38" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B38" s="43"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="38"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
     </row>
     <row r="39" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B39" s="43"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="38"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
     </row>
     <row r="40" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="85" t="s">
+      <c r="B40" s="95" t="s">
         <v>304</v>
       </c>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="95"/>
+      <c r="G40" s="95"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
     </row>
     <row r="41" spans="2:14" ht="18" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="D41" s="50" t="s">
+      <c r="D41" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="E41" s="51"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
     </row>
     <row r="42" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B42" s="53">
+      <c r="B42" s="51">
         <v>1</v>
       </c>
-      <c r="C42" s="63" t="s">
+      <c r="C42" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="55">
+      <c r="D42" s="53">
         <f>4+44/60</f>
         <v>4.7333333333333334</v>
       </c>
-      <c r="E42" s="56"/>
-      <c r="F42" s="52" t="s">
+      <c r="E42" s="54"/>
+      <c r="F42" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="G42" s="51">
+      <c r="G42" s="49">
         <f>COUNTIF(C42:C52,"Yes")</f>
         <v>10</v>
       </c>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
     </row>
     <row r="43" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B43" s="53">
+      <c r="B43" s="51">
         <v>2</v>
       </c>
-      <c r="C43" s="63" t="s">
+      <c r="C43" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="55">
+      <c r="D43" s="53">
         <f>5+34/60</f>
         <v>5.5666666666666664</v>
       </c>
-      <c r="E43" s="56"/>
-      <c r="F43" s="52" t="s">
+      <c r="E43" s="54"/>
+      <c r="F43" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="G43" s="51">
+      <c r="G43" s="49">
         <f>COUNTIF(C42:C52,"No")</f>
         <v>1</v>
       </c>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="38"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
     </row>
     <row r="44" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B44" s="53">
+      <c r="B44" s="51">
         <v>3</v>
       </c>
-      <c r="C44" s="63" t="s">
+      <c r="C44" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="55">
+      <c r="D44" s="53">
         <f>6+14/60</f>
         <v>6.2333333333333334</v>
       </c>
-      <c r="E44" s="56"/>
-      <c r="F44" s="52" t="s">
+      <c r="E44" s="54"/>
+      <c r="F44" s="50" t="s">
         <v>298</v>
       </c>
-      <c r="G44" s="51">
+      <c r="G44" s="49">
         <f>COUNT(B42:B52)</f>
         <v>11</v>
       </c>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="38"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
     </row>
     <row r="45" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B45" s="53">
+      <c r="B45" s="51">
         <v>4</v>
       </c>
-      <c r="C45" s="63" t="s">
+      <c r="C45" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="55">
+      <c r="D45" s="53">
         <f>4+49/60</f>
         <v>4.8166666666666664</v>
       </c>
-      <c r="E45" s="56"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="38"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
     </row>
     <row r="46" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B46" s="53">
+      <c r="B46" s="51">
         <v>5</v>
       </c>
-      <c r="C46" s="63" t="s">
+      <c r="C46" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="55">
+      <c r="D46" s="53">
         <f>9+14/60</f>
         <v>9.2333333333333325</v>
       </c>
-      <c r="E46" s="56"/>
-      <c r="F46" s="52" t="s">
+      <c r="E46" s="54"/>
+      <c r="F46" s="50" t="s">
         <v>299</v>
       </c>
-      <c r="G46" s="58">
+      <c r="G46" s="56">
         <f>G42/G44</f>
         <v>0.90909090909090906</v>
       </c>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="38"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
     </row>
     <row r="47" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B47" s="53">
+      <c r="B47" s="51">
         <v>6</v>
       </c>
-      <c r="C47" s="63" t="s">
+      <c r="C47" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="55">
+      <c r="D47" s="53">
         <f>15</f>
         <v>15</v>
       </c>
-      <c r="E47" s="56"/>
-      <c r="F47" s="52" t="s">
+      <c r="E47" s="54"/>
+      <c r="F47" s="50" t="s">
         <v>300</v>
       </c>
-      <c r="G47" s="58">
+      <c r="G47" s="56">
         <f>G43/G44</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="38"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="36"/>
     </row>
     <row r="48" spans="2:14" ht="17.25" x14ac:dyDescent="0.45">
-      <c r="B48" s="53">
+      <c r="B48" s="51">
         <v>7</v>
       </c>
-      <c r="C48" s="63" t="s">
+      <c r="C48" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="55">
+      <c r="D48" s="53">
         <f>7+45/60</f>
         <v>7.75</v>
       </c>
-      <c r="E48" s="56"/>
+      <c r="E48" s="54"/>
       <c r="F48" s="22"/>
       <c r="G48" s="33"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="38"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36"/>
     </row>
     <row r="49" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B49" s="53">
+      <c r="B49" s="51">
         <v>8</v>
       </c>
-      <c r="C49" s="63" t="s">
+      <c r="C49" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="55">
+      <c r="D49" s="53">
         <f>9+15/60</f>
         <v>9.25</v>
       </c>
-      <c r="E49" s="56"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="38"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="36"/>
     </row>
     <row r="50" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B50" s="53">
+      <c r="B50" s="51">
         <v>9</v>
       </c>
-      <c r="C50" s="63" t="s">
+      <c r="C50" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="55">
+      <c r="D50" s="53">
         <f>9+19/60</f>
         <v>9.3166666666666664</v>
       </c>
-      <c r="E50" s="56"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="38"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36"/>
     </row>
     <row r="51" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B51" s="53">
+      <c r="B51" s="51">
         <v>10</v>
       </c>
-      <c r="C51" s="63" t="s">
+      <c r="C51" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="55">
+      <c r="D51" s="53">
         <f>3+53/60</f>
         <v>3.8833333333333333</v>
       </c>
-      <c r="E51" s="56"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="38"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="36"/>
     </row>
     <row r="52" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B52" s="53">
+      <c r="B52" s="51">
         <v>11</v>
       </c>
-      <c r="C52" s="63" t="s">
+      <c r="C52" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="55">
+      <c r="D52" s="53">
         <f>6+10/60</f>
         <v>6.166666666666667</v>
       </c>
-      <c r="E52" s="56"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="38"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="38"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
     </row>
     <row r="53" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="38"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="36"/>
     </row>
     <row r="54" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="38"/>
-      <c r="K54" s="38"/>
-      <c r="L54" s="38"/>
-      <c r="M54" s="38"/>
-      <c r="N54" s="38"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="36"/>
     </row>
     <row r="55" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="85" t="s">
+      <c r="B55" s="95" t="s">
         <v>305</v>
       </c>
-      <c r="C55" s="85"/>
-      <c r="D55" s="85"/>
-      <c r="E55" s="85"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="85"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="38"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="38"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="95"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="95"/>
+      <c r="G55" s="95"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="36"/>
     </row>
     <row r="56" spans="2:14" ht="18" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="B56" s="50" t="s">
+      <c r="B56" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="C56" s="50" t="s">
+      <c r="C56" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="D56" s="50" t="s">
+      <c r="D56" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="E56" s="51"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="38"/>
-      <c r="N56" s="38"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="36"/>
     </row>
     <row r="57" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B57" s="53">
+      <c r="B57" s="51">
         <v>1</v>
       </c>
-      <c r="C57" s="54" t="s">
+      <c r="C57" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D57" s="55">
+      <c r="D57" s="53">
         <f>12+27/60</f>
         <v>12.45</v>
       </c>
-      <c r="E57" s="56">
+      <c r="E57" s="54">
         <v>0.51875000000000004</v>
       </c>
-      <c r="F57" s="52" t="s">
+      <c r="F57" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="G57" s="51">
+      <c r="G57" s="49">
         <f>COUNTIF(C57:C64,"Yes")</f>
         <v>1</v>
       </c>
-      <c r="H57" s="38"/>
-      <c r="I57" s="38"/>
-      <c r="J57" s="38"/>
-      <c r="K57" s="38"/>
-      <c r="L57" s="38"/>
-      <c r="M57" s="38"/>
-      <c r="N57" s="38"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="36"/>
     </row>
     <row r="58" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B58" s="53">
+      <c r="B58" s="51">
         <v>3</v>
       </c>
-      <c r="C58" s="54" t="s">
+      <c r="C58" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D58" s="55">
+      <c r="D58" s="53">
         <f>15</f>
         <v>15</v>
       </c>
-      <c r="E58" s="56">
+      <c r="E58" s="54">
         <v>0.625</v>
       </c>
-      <c r="F58" s="52" t="s">
+      <c r="F58" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="G58" s="51">
+      <c r="G58" s="49">
         <f>COUNTIF(C57:C64,"No")</f>
         <v>7</v>
       </c>
-      <c r="H58" s="38"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="38"/>
-      <c r="K58" s="38"/>
-      <c r="L58" s="38"/>
-      <c r="M58" s="38"/>
-      <c r="N58" s="38"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="36"/>
+      <c r="N58" s="36"/>
     </row>
     <row r="59" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B59" s="53">
+      <c r="B59" s="51">
         <v>4</v>
       </c>
-      <c r="C59" s="54" t="s">
+      <c r="C59" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D59" s="55">
+      <c r="D59" s="53">
         <f>15</f>
         <v>15</v>
       </c>
-      <c r="E59" s="56">
+      <c r="E59" s="54">
         <v>0.625</v>
       </c>
-      <c r="F59" s="52" t="s">
+      <c r="F59" s="50" t="s">
         <v>298</v>
       </c>
-      <c r="G59" s="51">
+      <c r="G59" s="49">
         <f>COUNT(B57:B64)</f>
         <v>8</v>
       </c>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="38"/>
-      <c r="M59" s="38"/>
-      <c r="N59" s="38"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36"/>
     </row>
     <row r="60" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B60" s="53">
+      <c r="B60" s="51">
         <v>5</v>
       </c>
-      <c r="C60" s="54" t="s">
+      <c r="C60" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D60" s="55">
+      <c r="D60" s="53">
         <f>15</f>
         <v>15</v>
       </c>
-      <c r="E60" s="56">
+      <c r="E60" s="54">
         <v>0.625</v>
       </c>
-      <c r="F60" s="52"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="38"/>
-      <c r="K60" s="38"/>
-      <c r="L60" s="38"/>
-      <c r="M60" s="38"/>
-      <c r="N60" s="38"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
     </row>
     <row r="61" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B61" s="53">
+      <c r="B61" s="51">
         <v>6</v>
       </c>
-      <c r="C61" s="54" t="s">
+      <c r="C61" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="55">
+      <c r="D61" s="53">
         <f>9+14/10</f>
         <v>10.4</v>
       </c>
-      <c r="E61" s="56">
+      <c r="E61" s="54">
         <v>0.38472222222222224</v>
       </c>
-      <c r="F61" s="52" t="s">
+      <c r="F61" s="50" t="s">
         <v>299</v>
       </c>
-      <c r="G61" s="58">
+      <c r="G61" s="56">
         <f>G57/G59</f>
         <v>0.125</v>
       </c>
-      <c r="H61" s="38"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="38"/>
-      <c r="K61" s="38"/>
-      <c r="L61" s="38"/>
-      <c r="M61" s="38"/>
-      <c r="N61" s="38"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="36"/>
     </row>
     <row r="62" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B62" s="53">
+      <c r="B62" s="51">
         <v>7</v>
       </c>
-      <c r="C62" s="54" t="s">
+      <c r="C62" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D62" s="55">
+      <c r="D62" s="53">
         <v>15</v>
       </c>
-      <c r="E62" s="56">
+      <c r="E62" s="54">
         <v>0.625</v>
       </c>
-      <c r="F62" s="52" t="s">
+      <c r="F62" s="50" t="s">
         <v>300</v>
       </c>
-      <c r="G62" s="58">
+      <c r="G62" s="56">
         <f>G58/G59</f>
         <v>0.875</v>
       </c>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="38"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="38"/>
-      <c r="M62" s="38"/>
-      <c r="N62" s="38"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="36"/>
     </row>
     <row r="63" spans="2:14" ht="17.25" x14ac:dyDescent="0.45">
-      <c r="B63" s="53">
+      <c r="B63" s="51">
         <v>8</v>
       </c>
-      <c r="C63" s="54" t="s">
+      <c r="C63" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="55">
+      <c r="D63" s="53">
         <v>15</v>
       </c>
-      <c r="E63" s="56">
+      <c r="E63" s="54">
         <v>0.625</v>
       </c>
       <c r="F63" s="22"/>
       <c r="G63" s="33"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="38"/>
-      <c r="J63" s="38"/>
-      <c r="K63" s="38"/>
-      <c r="L63" s="38"/>
-      <c r="M63" s="38"/>
-      <c r="N63" s="38"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="36"/>
     </row>
     <row r="64" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="B64" s="53">
+      <c r="B64" s="51">
         <v>9</v>
       </c>
-      <c r="C64" s="54" t="s">
+      <c r="C64" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="55">
+      <c r="D64" s="53">
         <v>15</v>
       </c>
-      <c r="E64" s="64">
+      <c r="E64" s="62">
         <v>0.625</v>
       </c>
-      <c r="F64" s="52"/>
-      <c r="G64" s="51"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="38"/>
-      <c r="J64" s="38"/>
-      <c r="K64" s="38"/>
-      <c r="L64" s="38"/>
-      <c r="M64" s="38"/>
-      <c r="N64" s="38"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="36"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="36"/>
+      <c r="N64" s="36"/>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C65" s="47"/>
-      <c r="D65" s="48"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="46"/>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C66" s="47"/>
-      <c r="D66" s="48"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="46"/>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C67" s="47"/>
+      <c r="C67" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -40517,7 +40576,7 @@
     <row r="46" spans="5:5" ht="12.75" x14ac:dyDescent="0.35"/>
     <row r="47" spans="5:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="E47" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="48" spans="5:5" ht="12.75" x14ac:dyDescent="0.35"/>
@@ -41279,30 +41338,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="67"/>
     </row>
     <row r="2" spans="1:25" ht="26.65" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
@@ -41371,34 +41430,34 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A3" s="65">
+      <c r="A3" s="63">
         <v>5</v>
       </c>
-      <c r="B3" s="65">
+      <c r="B3" s="63">
         <v>3</v>
       </c>
-      <c r="C3" s="65">
+      <c r="C3" s="63">
         <v>5</v>
       </c>
-      <c r="D3" s="65">
+      <c r="D3" s="63">
         <v>3</v>
       </c>
-      <c r="E3" s="65">
+      <c r="E3" s="63">
         <v>5</v>
       </c>
-      <c r="F3" s="65">
+      <c r="F3" s="63">
         <v>2</v>
       </c>
-      <c r="G3" s="65">
+      <c r="G3" s="63">
         <v>4</v>
       </c>
-      <c r="H3" s="65">
+      <c r="H3" s="63">
         <v>2</v>
       </c>
-      <c r="I3" s="65">
+      <c r="I3" s="63">
         <v>5</v>
       </c>
-      <c r="J3" s="65">
+      <c r="J3" s="63">
         <v>1</v>
       </c>
       <c r="K3" s="30"/>
@@ -41442,40 +41501,40 @@
         <f>5-J3</f>
         <v>4</v>
       </c>
-      <c r="V3" s="66">
+      <c r="V3" s="64">
         <f>SUM(L3:U3)*2.5</f>
         <v>82.5</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A4" s="65">
+      <c r="A4" s="63">
         <v>3</v>
       </c>
-      <c r="B4" s="65">
+      <c r="B4" s="63">
         <v>2</v>
       </c>
-      <c r="C4" s="65">
+      <c r="C4" s="63">
         <v>4</v>
       </c>
-      <c r="D4" s="65">
+      <c r="D4" s="63">
         <v>1</v>
       </c>
-      <c r="E4" s="65">
+      <c r="E4" s="63">
         <v>4</v>
       </c>
-      <c r="F4" s="65">
+      <c r="F4" s="63">
         <v>1</v>
       </c>
-      <c r="G4" s="65">
+      <c r="G4" s="63">
         <v>3</v>
       </c>
-      <c r="H4" s="65">
+      <c r="H4" s="63">
         <v>3</v>
       </c>
-      <c r="I4" s="65">
+      <c r="I4" s="63">
         <v>3</v>
       </c>
-      <c r="J4" s="65">
+      <c r="J4" s="63">
         <v>1</v>
       </c>
       <c r="K4" s="30"/>
@@ -41519,40 +41578,40 @@
         <f t="shared" ref="U4:U12" si="9">5-J4</f>
         <v>4</v>
       </c>
-      <c r="V4" s="66">
+      <c r="V4" s="64">
         <f t="shared" ref="V4:V12" si="10">SUM(L4:U4)*2.5</f>
         <v>72.5</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A5" s="65">
+      <c r="A5" s="63">
         <v>3</v>
       </c>
-      <c r="B5" s="65">
+      <c r="B5" s="63">
         <v>1</v>
       </c>
-      <c r="C5" s="65">
+      <c r="C5" s="63">
         <v>4</v>
       </c>
-      <c r="D5" s="65">
+      <c r="D5" s="63">
         <v>1</v>
       </c>
-      <c r="E5" s="65">
+      <c r="E5" s="63">
         <v>4</v>
       </c>
-      <c r="F5" s="65">
+      <c r="F5" s="63">
         <v>1</v>
       </c>
-      <c r="G5" s="65">
+      <c r="G5" s="63">
         <v>5</v>
       </c>
-      <c r="H5" s="65">
+      <c r="H5" s="63">
         <v>3</v>
       </c>
-      <c r="I5" s="65">
+      <c r="I5" s="63">
         <v>4</v>
       </c>
-      <c r="J5" s="65">
+      <c r="J5" s="63">
         <v>2</v>
       </c>
       <c r="K5" s="30"/>
@@ -41596,40 +41655,40 @@
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="V5" s="66">
+      <c r="V5" s="64">
         <f t="shared" si="10"/>
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A6" s="65">
+      <c r="A6" s="63">
         <v>5</v>
       </c>
-      <c r="B6" s="65">
+      <c r="B6" s="63">
         <v>2</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="63">
         <v>5</v>
       </c>
-      <c r="D6" s="65">
+      <c r="D6" s="63">
         <v>1</v>
       </c>
-      <c r="E6" s="65">
+      <c r="E6" s="63">
         <v>4</v>
       </c>
-      <c r="F6" s="65">
+      <c r="F6" s="63">
         <v>1</v>
       </c>
-      <c r="G6" s="65">
+      <c r="G6" s="63">
         <v>5</v>
       </c>
-      <c r="H6" s="65">
+      <c r="H6" s="63">
         <v>2</v>
       </c>
-      <c r="I6" s="65">
+      <c r="I6" s="63">
         <v>5</v>
       </c>
-      <c r="J6" s="65">
+      <c r="J6" s="63">
         <v>1</v>
       </c>
       <c r="K6" s="30"/>
@@ -41673,40 +41732,40 @@
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="V6" s="66">
+      <c r="V6" s="64">
         <f t="shared" si="10"/>
         <v>92.5</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A7" s="65">
+      <c r="A7" s="63">
         <v>3</v>
       </c>
-      <c r="B7" s="65">
+      <c r="B7" s="63">
         <v>1</v>
       </c>
-      <c r="C7" s="65">
+      <c r="C7" s="63">
         <v>2</v>
       </c>
-      <c r="D7" s="65">
+      <c r="D7" s="63">
         <v>1</v>
       </c>
-      <c r="E7" s="65">
+      <c r="E7" s="63">
         <v>3</v>
       </c>
-      <c r="F7" s="65">
+      <c r="F7" s="63">
         <v>2</v>
       </c>
-      <c r="G7" s="65">
+      <c r="G7" s="63">
         <v>5</v>
       </c>
-      <c r="H7" s="65">
+      <c r="H7" s="63">
         <v>4</v>
       </c>
-      <c r="I7" s="65">
+      <c r="I7" s="63">
         <v>4</v>
       </c>
-      <c r="J7" s="65">
+      <c r="J7" s="63">
         <v>1</v>
       </c>
       <c r="K7" s="30"/>
@@ -41750,40 +41809,40 @@
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="V7" s="66">
+      <c r="V7" s="64">
         <f t="shared" si="10"/>
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A8" s="65">
+      <c r="A8" s="63">
         <v>3</v>
       </c>
-      <c r="B8" s="65">
+      <c r="B8" s="63">
         <v>1</v>
       </c>
-      <c r="C8" s="65">
+      <c r="C8" s="63">
         <v>5</v>
       </c>
-      <c r="D8" s="65">
+      <c r="D8" s="63">
         <v>1</v>
       </c>
-      <c r="E8" s="65">
+      <c r="E8" s="63">
         <v>4</v>
       </c>
-      <c r="F8" s="65">
+      <c r="F8" s="63">
         <v>2</v>
       </c>
-      <c r="G8" s="65">
+      <c r="G8" s="63">
         <v>5</v>
       </c>
-      <c r="H8" s="65">
+      <c r="H8" s="63">
         <v>3</v>
       </c>
-      <c r="I8" s="65">
+      <c r="I8" s="63">
         <v>5</v>
       </c>
-      <c r="J8" s="65">
+      <c r="J8" s="63">
         <v>1</v>
       </c>
       <c r="K8" s="30"/>
@@ -41827,40 +41886,40 @@
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="V8" s="66">
+      <c r="V8" s="64">
         <f t="shared" si="10"/>
         <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A9" s="65">
+      <c r="A9" s="63">
         <v>5</v>
       </c>
-      <c r="B9" s="65">
+      <c r="B9" s="63">
         <v>1</v>
       </c>
-      <c r="C9" s="65">
+      <c r="C9" s="63">
         <v>5</v>
       </c>
-      <c r="D9" s="65">
+      <c r="D9" s="63">
         <v>1</v>
       </c>
-      <c r="E9" s="65">
+      <c r="E9" s="63">
         <v>5</v>
       </c>
-      <c r="F9" s="65">
+      <c r="F9" s="63">
         <v>5</v>
       </c>
-      <c r="G9" s="65">
+      <c r="G9" s="63">
         <v>4</v>
       </c>
-      <c r="H9" s="65">
+      <c r="H9" s="63">
         <v>5</v>
       </c>
-      <c r="I9" s="65">
+      <c r="I9" s="63">
         <v>5</v>
       </c>
-      <c r="J9" s="65">
+      <c r="J9" s="63">
         <v>2</v>
       </c>
       <c r="K9" s="30"/>
@@ -41904,40 +41963,40 @@
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="V9" s="66">
+      <c r="V9" s="64">
         <f t="shared" si="10"/>
         <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A10" s="65">
+      <c r="A10" s="63">
         <v>4</v>
       </c>
-      <c r="B10" s="65">
+      <c r="B10" s="63">
         <v>2</v>
       </c>
-      <c r="C10" s="65">
+      <c r="C10" s="63">
         <v>5</v>
       </c>
-      <c r="D10" s="65">
+      <c r="D10" s="63">
         <v>2</v>
       </c>
-      <c r="E10" s="65">
+      <c r="E10" s="63">
         <v>4</v>
       </c>
-      <c r="F10" s="65">
+      <c r="F10" s="63">
         <v>2</v>
       </c>
-      <c r="G10" s="65">
+      <c r="G10" s="63">
         <v>4</v>
       </c>
-      <c r="H10" s="65">
+      <c r="H10" s="63">
         <v>1</v>
       </c>
-      <c r="I10" s="65">
+      <c r="I10" s="63">
         <v>4</v>
       </c>
-      <c r="J10" s="65">
+      <c r="J10" s="63">
         <v>3</v>
       </c>
       <c r="K10" s="30"/>
@@ -41981,40 +42040,40 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="V10" s="66">
+      <c r="V10" s="64">
         <f t="shared" si="10"/>
         <v>77.5</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A11" s="65">
+      <c r="A11" s="63">
         <v>5</v>
       </c>
-      <c r="B11" s="65">
+      <c r="B11" s="63">
         <v>2</v>
       </c>
-      <c r="C11" s="65">
+      <c r="C11" s="63">
         <v>4</v>
       </c>
-      <c r="D11" s="65">
+      <c r="D11" s="63">
         <v>1</v>
       </c>
-      <c r="E11" s="65">
+      <c r="E11" s="63">
         <v>4</v>
       </c>
-      <c r="F11" s="65">
+      <c r="F11" s="63">
         <v>3</v>
       </c>
-      <c r="G11" s="65">
+      <c r="G11" s="63">
         <v>2</v>
       </c>
-      <c r="H11" s="65">
+      <c r="H11" s="63">
         <v>5</v>
       </c>
-      <c r="I11" s="65">
+      <c r="I11" s="63">
         <v>5</v>
       </c>
-      <c r="J11" s="65">
+      <c r="J11" s="63">
         <v>1</v>
       </c>
       <c r="K11" s="30"/>
@@ -42058,40 +42117,40 @@
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="V11" s="66">
+      <c r="V11" s="64">
         <f t="shared" si="10"/>
         <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A12" s="65">
+      <c r="A12" s="63">
         <v>4</v>
       </c>
-      <c r="B12" s="65">
+      <c r="B12" s="63">
         <v>2</v>
       </c>
-      <c r="C12" s="65">
+      <c r="C12" s="63">
         <v>3</v>
       </c>
-      <c r="D12" s="65">
+      <c r="D12" s="63">
         <v>3</v>
       </c>
-      <c r="E12" s="65">
+      <c r="E12" s="63">
         <v>4</v>
       </c>
-      <c r="F12" s="65">
+      <c r="F12" s="63">
         <v>2</v>
       </c>
-      <c r="G12" s="65">
+      <c r="G12" s="63">
         <v>5</v>
       </c>
-      <c r="H12" s="65">
+      <c r="H12" s="63">
         <v>1</v>
       </c>
-      <c r="I12" s="65">
+      <c r="I12" s="63">
         <v>3</v>
       </c>
-      <c r="J12" s="65">
+      <c r="J12" s="63">
         <v>2</v>
       </c>
       <c r="K12" s="30"/>
@@ -42135,7 +42194,7 @@
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="V12" s="66">
+      <c r="V12" s="64">
         <f t="shared" si="10"/>
         <v>72.5</v>
       </c>
@@ -42152,30 +42211,30 @@
       <c r="Y13" s="21"/>
     </row>
     <row r="14" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="70"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="69"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="81"/>
+      <c r="T14" s="81"/>
+      <c r="U14" s="81"/>
+      <c r="V14" s="67"/>
       <c r="X14" s="20"/>
       <c r="Y14" s="21"/>
     </row>
@@ -42248,34 +42307,34 @@
       <c r="Y15" s="21"/>
     </row>
     <row r="16" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A16" s="65">
+      <c r="A16" s="63">
         <v>4</v>
       </c>
-      <c r="B16" s="65">
+      <c r="B16" s="63">
         <v>3</v>
       </c>
-      <c r="C16" s="65">
+      <c r="C16" s="63">
         <v>4</v>
       </c>
-      <c r="D16" s="65">
+      <c r="D16" s="63">
         <v>2</v>
       </c>
-      <c r="E16" s="65">
+      <c r="E16" s="63">
         <v>4</v>
       </c>
-      <c r="F16" s="65">
+      <c r="F16" s="63">
         <v>2</v>
       </c>
-      <c r="G16" s="65">
+      <c r="G16" s="63">
         <v>3</v>
       </c>
-      <c r="H16" s="65">
+      <c r="H16" s="63">
         <v>2</v>
       </c>
-      <c r="I16" s="65">
+      <c r="I16" s="63">
         <v>4</v>
       </c>
-      <c r="J16" s="65">
+      <c r="J16" s="63">
         <v>3</v>
       </c>
       <c r="K16" s="30"/>
@@ -42319,7 +42378,7 @@
         <f>5-J16</f>
         <v>2</v>
       </c>
-      <c r="V16" s="66">
+      <c r="V16" s="64">
         <f>SUM(L16:U16)*2.5</f>
         <v>67.5</v>
       </c>
@@ -42327,34 +42386,34 @@
       <c r="Y16" s="21"/>
     </row>
     <row r="17" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A17" s="65">
+      <c r="A17" s="63">
         <v>3</v>
       </c>
-      <c r="B17" s="65">
+      <c r="B17" s="63">
         <v>4</v>
       </c>
-      <c r="C17" s="65">
+      <c r="C17" s="63">
         <v>4</v>
       </c>
-      <c r="D17" s="65">
+      <c r="D17" s="63">
         <v>2</v>
       </c>
-      <c r="E17" s="65">
+      <c r="E17" s="63">
         <v>3</v>
       </c>
-      <c r="F17" s="65">
+      <c r="F17" s="63">
         <v>4</v>
       </c>
-      <c r="G17" s="65">
+      <c r="G17" s="63">
         <v>3</v>
       </c>
-      <c r="H17" s="65">
+      <c r="H17" s="63">
         <v>2</v>
       </c>
-      <c r="I17" s="65">
+      <c r="I17" s="63">
         <v>3</v>
       </c>
-      <c r="J17" s="65">
+      <c r="J17" s="63">
         <v>3</v>
       </c>
       <c r="K17" s="30"/>
@@ -42398,7 +42457,7 @@
         <f t="shared" ref="U17:U26" si="20">5-J17</f>
         <v>2</v>
       </c>
-      <c r="V17" s="66">
+      <c r="V17" s="64">
         <f t="shared" ref="V17:V26" si="21">SUM(L17:U17)*2.5</f>
         <v>52.5</v>
       </c>
@@ -42406,34 +42465,34 @@
       <c r="Y17" s="21"/>
     </row>
     <row r="18" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A18" s="65">
+      <c r="A18" s="63">
         <v>1</v>
       </c>
-      <c r="B18" s="65">
+      <c r="B18" s="63">
         <v>1</v>
       </c>
-      <c r="C18" s="65">
+      <c r="C18" s="63">
         <v>2</v>
       </c>
-      <c r="D18" s="65">
+      <c r="D18" s="63">
         <v>2</v>
       </c>
-      <c r="E18" s="65">
+      <c r="E18" s="63">
         <v>1</v>
       </c>
-      <c r="F18" s="65">
+      <c r="F18" s="63">
         <v>2</v>
       </c>
-      <c r="G18" s="65">
+      <c r="G18" s="63">
         <v>3</v>
       </c>
-      <c r="H18" s="65">
+      <c r="H18" s="63">
         <v>5</v>
       </c>
-      <c r="I18" s="65">
+      <c r="I18" s="63">
         <v>2</v>
       </c>
-      <c r="J18" s="65">
+      <c r="J18" s="63">
         <v>1</v>
       </c>
       <c r="K18" s="30"/>
@@ -42477,7 +42536,7 @@
         <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="V18" s="66">
+      <c r="V18" s="64">
         <f t="shared" si="21"/>
         <v>45</v>
       </c>
@@ -42485,34 +42544,34 @@
       <c r="Y18" s="21"/>
     </row>
     <row r="19" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A19" s="65">
+      <c r="A19" s="63">
         <v>1</v>
       </c>
-      <c r="B19" s="65">
+      <c r="B19" s="63">
         <v>4</v>
       </c>
-      <c r="C19" s="65">
+      <c r="C19" s="63">
         <v>2</v>
       </c>
-      <c r="D19" s="65">
+      <c r="D19" s="63">
         <v>5</v>
       </c>
-      <c r="E19" s="65">
+      <c r="E19" s="63">
         <v>2</v>
       </c>
-      <c r="F19" s="65">
+      <c r="F19" s="63">
         <v>4</v>
       </c>
-      <c r="G19" s="65">
+      <c r="G19" s="63">
         <v>1</v>
       </c>
-      <c r="H19" s="65">
+      <c r="H19" s="63">
         <v>5</v>
       </c>
-      <c r="I19" s="65">
+      <c r="I19" s="63">
         <v>1</v>
       </c>
-      <c r="J19" s="65">
+      <c r="J19" s="63">
         <v>1</v>
       </c>
       <c r="K19" s="30"/>
@@ -42556,7 +42615,7 @@
         <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="V19" s="66">
+      <c r="V19" s="64">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
@@ -42564,32 +42623,32 @@
       <c r="Y19" s="21"/>
     </row>
     <row r="20" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A20" s="65">
+      <c r="A20" s="63">
         <v>2</v>
       </c>
-      <c r="B20" s="65">
+      <c r="B20" s="63">
         <v>4</v>
       </c>
-      <c r="C20" s="65">
+      <c r="C20" s="63">
         <v>1</v>
       </c>
-      <c r="D20" s="65">
+      <c r="D20" s="63">
         <v>4</v>
       </c>
-      <c r="E20" s="65">
+      <c r="E20" s="63">
         <v>4</v>
       </c>
-      <c r="F20" s="65">
+      <c r="F20" s="63">
         <v>5</v>
       </c>
-      <c r="G20" s="65">
+      <c r="G20" s="63">
         <v>2</v>
       </c>
-      <c r="H20" s="65">
+      <c r="H20" s="63">
         <v>5</v>
       </c>
       <c r="I20" s="33"/>
-      <c r="J20" s="65">
+      <c r="J20" s="63">
         <v>2</v>
       </c>
       <c r="K20" s="30"/>
@@ -42633,7 +42692,7 @@
         <f t="shared" si="20"/>
         <v>3</v>
       </c>
-      <c r="V20" s="66">
+      <c r="V20" s="64">
         <f t="shared" si="21"/>
         <v>22.5</v>
       </c>
@@ -42641,34 +42700,34 @@
       <c r="Y20" s="21"/>
     </row>
     <row r="21" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A21" s="65">
+      <c r="A21" s="63">
         <v>1</v>
       </c>
-      <c r="B21" s="65">
+      <c r="B21" s="63">
         <v>5</v>
       </c>
-      <c r="C21" s="65">
+      <c r="C21" s="63">
         <v>1</v>
       </c>
-      <c r="D21" s="65">
+      <c r="D21" s="63">
         <v>3</v>
       </c>
-      <c r="E21" s="65">
+      <c r="E21" s="63">
         <v>3</v>
       </c>
-      <c r="F21" s="65">
+      <c r="F21" s="63">
         <v>5</v>
       </c>
-      <c r="G21" s="65">
+      <c r="G21" s="63">
         <v>5</v>
       </c>
-      <c r="H21" s="65">
+      <c r="H21" s="63">
         <v>5</v>
       </c>
-      <c r="I21" s="65">
+      <c r="I21" s="63">
         <v>1</v>
       </c>
-      <c r="J21" s="65">
+      <c r="J21" s="63">
         <v>1</v>
       </c>
       <c r="K21" s="30"/>
@@ -42712,7 +42771,7 @@
         <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="V21" s="66">
+      <c r="V21" s="64">
         <f t="shared" si="21"/>
         <v>30</v>
       </c>
@@ -42720,28 +42779,28 @@
       <c r="Y21" s="21"/>
     </row>
     <row r="22" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="65">
+      <c r="A22" s="63">
         <v>2</v>
       </c>
-      <c r="B22" s="65">
+      <c r="B22" s="63">
         <v>1</v>
       </c>
       <c r="C22" s="33"/>
-      <c r="D22" s="65">
+      <c r="D22" s="63">
         <v>3</v>
       </c>
       <c r="E22" s="33"/>
-      <c r="F22" s="65">
+      <c r="F22" s="63">
         <v>4</v>
       </c>
-      <c r="G22" s="65">
+      <c r="G22" s="63">
         <v>4</v>
       </c>
-      <c r="H22" s="65">
+      <c r="H22" s="63">
         <v>3</v>
       </c>
       <c r="I22" s="33"/>
-      <c r="J22" s="65">
+      <c r="J22" s="63">
         <v>2</v>
       </c>
       <c r="K22" s="30"/>
@@ -42785,7 +42844,7 @@
         <f t="shared" si="20"/>
         <v>3</v>
       </c>
-      <c r="V22" s="66">
+      <c r="V22" s="64">
         <f t="shared" si="21"/>
         <v>32.5</v>
       </c>
@@ -42793,34 +42852,34 @@
       <c r="Y22" s="21"/>
     </row>
     <row r="23" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A23" s="65">
+      <c r="A23" s="63">
         <v>2</v>
       </c>
-      <c r="B23" s="65">
+      <c r="B23" s="63">
         <v>2</v>
       </c>
-      <c r="C23" s="65">
+      <c r="C23" s="63">
         <v>2</v>
       </c>
-      <c r="D23" s="65">
+      <c r="D23" s="63">
         <v>2</v>
       </c>
-      <c r="E23" s="65">
+      <c r="E23" s="63">
         <v>3</v>
       </c>
-      <c r="F23" s="65">
+      <c r="F23" s="63">
         <v>1</v>
       </c>
-      <c r="G23" s="65">
+      <c r="G23" s="63">
         <v>2</v>
       </c>
-      <c r="H23" s="65">
+      <c r="H23" s="63">
         <v>4</v>
       </c>
-      <c r="I23" s="65">
+      <c r="I23" s="63">
         <v>2</v>
       </c>
-      <c r="J23" s="65">
+      <c r="J23" s="63">
         <v>2</v>
       </c>
       <c r="K23" s="30"/>
@@ -42864,7 +42923,7 @@
         <f t="shared" si="20"/>
         <v>3</v>
       </c>
-      <c r="V23" s="66">
+      <c r="V23" s="64">
         <f t="shared" si="21"/>
         <v>50</v>
       </c>
@@ -42872,34 +42931,34 @@
       <c r="Y23" s="21"/>
     </row>
     <row r="24" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="65">
+      <c r="A24" s="63">
         <v>3</v>
       </c>
-      <c r="B24" s="65">
+      <c r="B24" s="63">
         <v>3</v>
       </c>
-      <c r="C24" s="65">
+      <c r="C24" s="63">
         <v>3</v>
       </c>
-      <c r="D24" s="65">
+      <c r="D24" s="63">
         <v>3</v>
       </c>
-      <c r="E24" s="65">
+      <c r="E24" s="63">
         <v>3</v>
       </c>
-      <c r="F24" s="65">
+      <c r="F24" s="63">
         <v>2</v>
       </c>
-      <c r="G24" s="65">
+      <c r="G24" s="63">
         <v>4</v>
       </c>
-      <c r="H24" s="65">
+      <c r="H24" s="63">
         <v>1</v>
       </c>
-      <c r="I24" s="65">
+      <c r="I24" s="63">
         <v>2</v>
       </c>
-      <c r="J24" s="65">
+      <c r="J24" s="63">
         <v>2</v>
       </c>
       <c r="K24" s="30"/>
@@ -42943,7 +43002,7 @@
         <f t="shared" si="20"/>
         <v>3</v>
       </c>
-      <c r="V24" s="66">
+      <c r="V24" s="64">
         <f t="shared" si="21"/>
         <v>60</v>
       </c>
@@ -42951,34 +43010,34 @@
       <c r="Y24" s="21"/>
     </row>
     <row r="25" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A25" s="65">
+      <c r="A25" s="63">
         <v>3</v>
       </c>
-      <c r="B25" s="65">
+      <c r="B25" s="63">
         <v>4</v>
       </c>
-      <c r="C25" s="65">
+      <c r="C25" s="63">
         <v>2</v>
       </c>
-      <c r="D25" s="65">
+      <c r="D25" s="63">
         <v>4</v>
       </c>
-      <c r="E25" s="65">
+      <c r="E25" s="63">
         <v>3</v>
       </c>
-      <c r="F25" s="65">
+      <c r="F25" s="63">
         <v>4</v>
       </c>
-      <c r="G25" s="65">
+      <c r="G25" s="63">
         <v>3</v>
       </c>
-      <c r="H25" s="65">
+      <c r="H25" s="63">
         <v>4</v>
       </c>
-      <c r="I25" s="65">
+      <c r="I25" s="63">
         <v>4</v>
       </c>
-      <c r="J25" s="65">
+      <c r="J25" s="63">
         <v>2</v>
       </c>
       <c r="K25" s="30"/>
@@ -43022,7 +43081,7 @@
         <f t="shared" si="20"/>
         <v>3</v>
       </c>
-      <c r="V25" s="66">
+      <c r="V25" s="64">
         <f t="shared" si="21"/>
         <v>42.5</v>
       </c>
@@ -43030,34 +43089,34 @@
       <c r="Y25" s="21"/>
     </row>
     <row r="26" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A26" s="65">
+      <c r="A26" s="63">
         <v>2</v>
       </c>
-      <c r="B26" s="65">
+      <c r="B26" s="63">
         <v>1</v>
       </c>
-      <c r="C26" s="65">
+      <c r="C26" s="63">
         <v>3</v>
       </c>
-      <c r="D26" s="65">
+      <c r="D26" s="63">
         <v>3</v>
       </c>
-      <c r="E26" s="65">
+      <c r="E26" s="63">
         <v>3</v>
       </c>
-      <c r="F26" s="65">
+      <c r="F26" s="63">
         <v>4</v>
       </c>
-      <c r="G26" s="65">
+      <c r="G26" s="63">
         <v>2</v>
       </c>
-      <c r="H26" s="65">
+      <c r="H26" s="63">
         <v>3</v>
       </c>
-      <c r="I26" s="65">
+      <c r="I26" s="63">
         <v>2</v>
       </c>
-      <c r="J26" s="65">
+      <c r="J26" s="63">
         <v>3</v>
       </c>
       <c r="K26" s="30"/>
@@ -43101,7 +43160,7 @@
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="V26" s="66">
+      <c r="V26" s="64">
         <f t="shared" si="21"/>
         <v>45</v>
       </c>
@@ -43118,30 +43177,30 @@
       <c r="Y27" s="21"/>
     </row>
     <row r="28" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="70"/>
-      <c r="O28" s="70"/>
-      <c r="P28" s="70"/>
-      <c r="Q28" s="70"/>
-      <c r="R28" s="70"/>
-      <c r="S28" s="70"/>
-      <c r="T28" s="70"/>
-      <c r="U28" s="70"/>
-      <c r="V28" s="69"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="81"/>
+      <c r="P28" s="81"/>
+      <c r="Q28" s="81"/>
+      <c r="R28" s="81"/>
+      <c r="S28" s="81"/>
+      <c r="T28" s="81"/>
+      <c r="U28" s="81"/>
+      <c r="V28" s="67"/>
       <c r="X28" s="20"/>
       <c r="Y28" s="21"/>
     </row>
@@ -43214,34 +43273,34 @@
       <c r="Y29" s="21"/>
     </row>
     <row r="30" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A30" s="65">
+      <c r="A30" s="63">
         <v>4</v>
       </c>
-      <c r="B30" s="65">
+      <c r="B30" s="63">
         <v>1</v>
       </c>
-      <c r="C30" s="65">
+      <c r="C30" s="63">
         <v>3</v>
       </c>
-      <c r="D30" s="65">
+      <c r="D30" s="63">
         <v>1</v>
       </c>
-      <c r="E30" s="65">
+      <c r="E30" s="63">
         <v>4</v>
       </c>
-      <c r="F30" s="65">
+      <c r="F30" s="63">
         <v>3</v>
       </c>
-      <c r="G30" s="65">
+      <c r="G30" s="63">
         <v>4</v>
       </c>
-      <c r="H30" s="65">
+      <c r="H30" s="63">
         <v>3</v>
       </c>
-      <c r="I30" s="65">
+      <c r="I30" s="63">
         <v>2</v>
       </c>
-      <c r="J30" s="65">
+      <c r="J30" s="63">
         <v>3</v>
       </c>
       <c r="K30" s="30"/>
@@ -43285,7 +43344,7 @@
         <f>5-J30</f>
         <v>2</v>
       </c>
-      <c r="V30" s="66">
+      <c r="V30" s="64">
         <f>SUM(L30:U30)*2.5</f>
         <v>65</v>
       </c>
@@ -43293,34 +43352,34 @@
       <c r="Y30" s="21"/>
     </row>
     <row r="31" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A31" s="65">
+      <c r="A31" s="63">
         <v>1</v>
       </c>
-      <c r="B31" s="65">
+      <c r="B31" s="63">
         <v>3</v>
       </c>
-      <c r="C31" s="65">
+      <c r="C31" s="63">
         <v>1</v>
       </c>
-      <c r="D31" s="65">
+      <c r="D31" s="63">
         <v>2</v>
       </c>
-      <c r="E31" s="65">
+      <c r="E31" s="63">
         <v>4</v>
       </c>
-      <c r="F31" s="65">
+      <c r="F31" s="63">
         <v>1</v>
       </c>
-      <c r="G31" s="65">
+      <c r="G31" s="63">
         <v>1</v>
       </c>
-      <c r="H31" s="65">
+      <c r="H31" s="63">
         <v>5</v>
       </c>
-      <c r="I31" s="65">
+      <c r="I31" s="63">
         <v>3</v>
       </c>
-      <c r="J31" s="65">
+      <c r="J31" s="63">
         <v>5</v>
       </c>
       <c r="K31" s="30"/>
@@ -43364,7 +43423,7 @@
         <f t="shared" ref="U31:U36" si="31">5-J31</f>
         <v>0</v>
       </c>
-      <c r="V31" s="66">
+      <c r="V31" s="64">
         <f t="shared" ref="V31:V36" si="32">SUM(L31:U31)*2.5</f>
         <v>35</v>
       </c>
@@ -43372,34 +43431,34 @@
       <c r="Y31" s="21"/>
     </row>
     <row r="32" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A32" s="65">
+      <c r="A32" s="63">
         <v>4</v>
       </c>
-      <c r="B32" s="65">
+      <c r="B32" s="63">
         <v>2</v>
       </c>
-      <c r="C32" s="65">
+      <c r="C32" s="63">
         <v>3</v>
       </c>
-      <c r="D32" s="65">
+      <c r="D32" s="63">
         <v>2</v>
       </c>
-      <c r="E32" s="65">
+      <c r="E32" s="63">
         <v>5</v>
       </c>
-      <c r="F32" s="65">
+      <c r="F32" s="63">
         <v>1</v>
       </c>
-      <c r="G32" s="65">
+      <c r="G32" s="63">
         <v>3</v>
       </c>
-      <c r="H32" s="65">
+      <c r="H32" s="63">
         <v>3</v>
       </c>
-      <c r="I32" s="65">
+      <c r="I32" s="63">
         <v>4</v>
       </c>
-      <c r="J32" s="65">
+      <c r="J32" s="63">
         <v>1</v>
       </c>
       <c r="K32" s="30"/>
@@ -43443,7 +43502,7 @@
         <f t="shared" si="31"/>
         <v>4</v>
       </c>
-      <c r="V32" s="66">
+      <c r="V32" s="64">
         <f t="shared" si="32"/>
         <v>75</v>
       </c>
@@ -43451,34 +43510,34 @@
       <c r="Y32" s="21"/>
     </row>
     <row r="33" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A33" s="65">
+      <c r="A33" s="63">
         <v>2</v>
       </c>
-      <c r="B33" s="65">
+      <c r="B33" s="63">
         <v>2</v>
       </c>
-      <c r="C33" s="65">
+      <c r="C33" s="63">
         <v>2</v>
       </c>
-      <c r="D33" s="65">
+      <c r="D33" s="63">
         <v>1</v>
       </c>
-      <c r="E33" s="65">
+      <c r="E33" s="63">
         <v>4</v>
       </c>
-      <c r="F33" s="65">
+      <c r="F33" s="63">
         <v>2</v>
       </c>
-      <c r="G33" s="65">
+      <c r="G33" s="63">
         <v>4</v>
       </c>
-      <c r="H33" s="65">
+      <c r="H33" s="63">
         <v>5</v>
       </c>
-      <c r="I33" s="65">
+      <c r="I33" s="63">
         <v>3</v>
       </c>
-      <c r="J33" s="65">
+      <c r="J33" s="63">
         <v>1</v>
       </c>
       <c r="K33" s="30"/>
@@ -43522,7 +43581,7 @@
         <f t="shared" si="31"/>
         <v>4</v>
       </c>
-      <c r="V33" s="66">
+      <c r="V33" s="64">
         <f t="shared" si="32"/>
         <v>60</v>
       </c>
@@ -43530,34 +43589,34 @@
       <c r="Y33" s="21"/>
     </row>
     <row r="34" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A34" s="65">
+      <c r="A34" s="63">
         <v>2</v>
       </c>
-      <c r="B34" s="65">
+      <c r="B34" s="63">
         <v>2</v>
       </c>
-      <c r="C34" s="65">
+      <c r="C34" s="63">
         <v>1</v>
       </c>
-      <c r="D34" s="65">
+      <c r="D34" s="63">
         <v>2</v>
       </c>
-      <c r="E34" s="65">
+      <c r="E34" s="63">
         <v>4</v>
       </c>
-      <c r="F34" s="65">
+      <c r="F34" s="63">
         <v>2</v>
       </c>
-      <c r="G34" s="65">
+      <c r="G34" s="63">
         <v>4</v>
       </c>
-      <c r="H34" s="65">
+      <c r="H34" s="63">
         <v>1</v>
       </c>
-      <c r="I34" s="65">
+      <c r="I34" s="63">
         <v>1</v>
       </c>
-      <c r="J34" s="65">
+      <c r="J34" s="63">
         <v>2</v>
       </c>
       <c r="K34" s="30"/>
@@ -43601,7 +43660,7 @@
         <f t="shared" si="31"/>
         <v>3</v>
       </c>
-      <c r="V34" s="66">
+      <c r="V34" s="64">
         <f t="shared" si="32"/>
         <v>57.5</v>
       </c>
@@ -43609,34 +43668,34 @@
       <c r="Y34" s="21"/>
     </row>
     <row r="35" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A35" s="65">
+      <c r="A35" s="63">
         <v>3</v>
       </c>
-      <c r="B35" s="65">
+      <c r="B35" s="63">
         <v>1</v>
       </c>
-      <c r="C35" s="65">
+      <c r="C35" s="63">
         <v>3</v>
       </c>
-      <c r="D35" s="65">
+      <c r="D35" s="63">
         <v>4</v>
       </c>
-      <c r="E35" s="65">
+      <c r="E35" s="63">
         <v>2</v>
       </c>
-      <c r="F35" s="65">
+      <c r="F35" s="63">
         <v>4</v>
       </c>
-      <c r="G35" s="65">
+      <c r="G35" s="63">
         <v>5</v>
       </c>
-      <c r="H35" s="65">
+      <c r="H35" s="63">
         <v>3</v>
       </c>
-      <c r="I35" s="65">
+      <c r="I35" s="63">
         <v>3</v>
       </c>
-      <c r="J35" s="65">
+      <c r="J35" s="63">
         <v>1</v>
       </c>
       <c r="K35" s="30"/>
@@ -43680,7 +43739,7 @@
         <f t="shared" si="31"/>
         <v>4</v>
       </c>
-      <c r="V35" s="66">
+      <c r="V35" s="64">
         <f t="shared" si="32"/>
         <v>57.5</v>
       </c>
@@ -43688,34 +43747,34 @@
       <c r="Y35" s="21"/>
     </row>
     <row r="36" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A36" s="65">
+      <c r="A36" s="63">
         <v>3</v>
       </c>
-      <c r="B36" s="65">
+      <c r="B36" s="63">
         <v>2</v>
       </c>
-      <c r="C36" s="65">
+      <c r="C36" s="63">
         <v>2</v>
       </c>
-      <c r="D36" s="65">
+      <c r="D36" s="63">
         <v>2</v>
       </c>
-      <c r="E36" s="65">
+      <c r="E36" s="63">
         <v>3</v>
       </c>
-      <c r="F36" s="65">
+      <c r="F36" s="63">
         <v>4</v>
       </c>
-      <c r="G36" s="65">
+      <c r="G36" s="63">
         <v>3</v>
       </c>
-      <c r="H36" s="65">
+      <c r="H36" s="63">
         <v>4</v>
       </c>
-      <c r="I36" s="65">
+      <c r="I36" s="63">
         <v>3</v>
       </c>
-      <c r="J36" s="65">
+      <c r="J36" s="63">
         <v>1</v>
       </c>
       <c r="K36" s="30"/>
@@ -43759,7 +43818,7 @@
         <f t="shared" si="31"/>
         <v>4</v>
       </c>
-      <c r="V36" s="66">
+      <c r="V36" s="64">
         <f t="shared" si="32"/>
         <v>52.5</v>
       </c>
@@ -43776,30 +43835,30 @@
       <c r="Y37" s="21"/>
     </row>
     <row r="38" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="70" t="s">
+      <c r="A38" s="81" t="s">
         <v>308</v>
       </c>
-      <c r="B38" s="70"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="70"/>
-      <c r="K38" s="70"/>
-      <c r="L38" s="70"/>
-      <c r="M38" s="70"/>
-      <c r="N38" s="70"/>
-      <c r="O38" s="70"/>
-      <c r="P38" s="70"/>
-      <c r="Q38" s="70"/>
-      <c r="R38" s="70"/>
-      <c r="S38" s="70"/>
-      <c r="T38" s="70"/>
-      <c r="U38" s="70"/>
-      <c r="V38" s="69"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="81"/>
+      <c r="K38" s="81"/>
+      <c r="L38" s="81"/>
+      <c r="M38" s="81"/>
+      <c r="N38" s="81"/>
+      <c r="O38" s="81"/>
+      <c r="P38" s="81"/>
+      <c r="Q38" s="81"/>
+      <c r="R38" s="81"/>
+      <c r="S38" s="81"/>
+      <c r="T38" s="81"/>
+      <c r="U38" s="81"/>
+      <c r="V38" s="67"/>
       <c r="X38" s="20"/>
       <c r="Y38" s="21"/>
     </row>
@@ -43872,34 +43931,34 @@
       <c r="Y39" s="21"/>
     </row>
     <row r="40" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A40" s="67">
+      <c r="A40" s="65">
         <v>4</v>
       </c>
-      <c r="B40" s="67">
+      <c r="B40" s="65">
         <v>2</v>
       </c>
-      <c r="C40" s="67">
+      <c r="C40" s="65">
         <v>4</v>
       </c>
-      <c r="D40" s="67">
+      <c r="D40" s="65">
         <v>3</v>
       </c>
-      <c r="E40" s="67">
+      <c r="E40" s="65">
         <v>4</v>
       </c>
-      <c r="F40" s="67">
+      <c r="F40" s="65">
         <v>2</v>
       </c>
-      <c r="G40" s="67">
+      <c r="G40" s="65">
         <v>3</v>
       </c>
-      <c r="H40" s="67">
+      <c r="H40" s="65">
         <v>3</v>
       </c>
-      <c r="I40" s="67">
+      <c r="I40" s="65">
         <v>4</v>
       </c>
-      <c r="J40" s="67">
+      <c r="J40" s="65">
         <v>3</v>
       </c>
       <c r="K40" s="30"/>
@@ -43943,7 +44002,7 @@
         <f>5-J40</f>
         <v>2</v>
       </c>
-      <c r="V40" s="66">
+      <c r="V40" s="64">
         <f>SUM(L40:U40)*2.5</f>
         <v>65</v>
       </c>
@@ -43951,34 +44010,34 @@
       <c r="Y40" s="21"/>
     </row>
     <row r="41" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A41" s="67">
+      <c r="A41" s="65">
         <v>3</v>
       </c>
-      <c r="B41" s="67">
+      <c r="B41" s="65">
         <v>1</v>
       </c>
-      <c r="C41" s="67">
+      <c r="C41" s="65">
         <v>3</v>
       </c>
-      <c r="D41" s="67">
+      <c r="D41" s="65">
         <v>4</v>
       </c>
-      <c r="E41" s="67">
+      <c r="E41" s="65">
         <v>5</v>
       </c>
-      <c r="F41" s="67">
+      <c r="F41" s="65">
         <v>2</v>
       </c>
-      <c r="G41" s="67">
+      <c r="G41" s="65">
         <v>3</v>
       </c>
-      <c r="H41" s="67">
+      <c r="H41" s="65">
         <v>3</v>
       </c>
-      <c r="I41" s="67">
+      <c r="I41" s="65">
         <v>5</v>
       </c>
-      <c r="J41" s="67">
+      <c r="J41" s="65">
         <v>3</v>
       </c>
       <c r="K41" s="30"/>
@@ -44022,7 +44081,7 @@
         <f t="shared" ref="U41:U51" si="42">5-J41</f>
         <v>2</v>
       </c>
-      <c r="V41" s="66">
+      <c r="V41" s="64">
         <f t="shared" ref="V41:V51" si="43">SUM(L41:U41)*2.5</f>
         <v>65</v>
       </c>
@@ -44030,34 +44089,34 @@
       <c r="Y41" s="21"/>
     </row>
     <row r="42" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A42" s="67">
+      <c r="A42" s="65">
         <v>3</v>
       </c>
-      <c r="B42" s="67">
+      <c r="B42" s="65">
         <v>4</v>
       </c>
-      <c r="C42" s="67">
+      <c r="C42" s="65">
         <v>3</v>
       </c>
-      <c r="D42" s="67">
+      <c r="D42" s="65">
         <v>2</v>
       </c>
-      <c r="E42" s="67">
+      <c r="E42" s="65">
         <v>4</v>
       </c>
-      <c r="F42" s="67">
+      <c r="F42" s="65">
         <v>2</v>
       </c>
-      <c r="G42" s="67">
+      <c r="G42" s="65">
         <v>4</v>
       </c>
-      <c r="H42" s="67">
+      <c r="H42" s="65">
         <v>3</v>
       </c>
-      <c r="I42" s="67">
+      <c r="I42" s="65">
         <v>3</v>
       </c>
-      <c r="J42" s="67">
+      <c r="J42" s="65">
         <v>1</v>
       </c>
       <c r="K42" s="30"/>
@@ -44101,7 +44160,7 @@
         <f t="shared" si="42"/>
         <v>4</v>
       </c>
-      <c r="V42" s="66">
+      <c r="V42" s="64">
         <f t="shared" si="43"/>
         <v>62.5</v>
       </c>
@@ -44109,34 +44168,34 @@
       <c r="Y42" s="21"/>
     </row>
     <row r="43" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A43" s="67">
+      <c r="A43" s="65">
         <v>3</v>
       </c>
-      <c r="B43" s="67">
+      <c r="B43" s="65">
         <v>1</v>
       </c>
-      <c r="C43" s="67">
+      <c r="C43" s="65">
         <v>5</v>
       </c>
-      <c r="D43" s="67">
+      <c r="D43" s="65">
         <v>2</v>
       </c>
-      <c r="E43" s="67">
+      <c r="E43" s="65">
         <v>4</v>
       </c>
-      <c r="F43" s="67">
+      <c r="F43" s="65">
         <v>2</v>
       </c>
-      <c r="G43" s="67">
+      <c r="G43" s="65">
         <v>5</v>
       </c>
-      <c r="H43" s="67">
+      <c r="H43" s="65">
         <v>1</v>
       </c>
-      <c r="I43" s="67">
+      <c r="I43" s="65">
         <v>5</v>
       </c>
-      <c r="J43" s="67">
+      <c r="J43" s="65">
         <v>1</v>
       </c>
       <c r="K43" s="30"/>
@@ -44180,7 +44239,7 @@
         <f t="shared" si="42"/>
         <v>4</v>
       </c>
-      <c r="V43" s="66">
+      <c r="V43" s="64">
         <f t="shared" si="43"/>
         <v>87.5</v>
       </c>
@@ -44188,34 +44247,34 @@
       <c r="Y43" s="21"/>
     </row>
     <row r="44" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A44" s="67">
+      <c r="A44" s="65">
         <v>3</v>
       </c>
-      <c r="B44" s="67">
+      <c r="B44" s="65">
         <v>2</v>
       </c>
-      <c r="C44" s="67">
+      <c r="C44" s="65">
         <v>4</v>
       </c>
-      <c r="D44" s="67">
+      <c r="D44" s="65">
         <v>3</v>
       </c>
-      <c r="E44" s="67">
+      <c r="E44" s="65">
         <v>4</v>
       </c>
-      <c r="F44" s="67">
+      <c r="F44" s="65">
         <v>1</v>
       </c>
-      <c r="G44" s="67">
+      <c r="G44" s="65">
         <v>5</v>
       </c>
-      <c r="H44" s="67">
+      <c r="H44" s="65">
         <v>3</v>
       </c>
-      <c r="I44" s="67">
+      <c r="I44" s="65">
         <v>4</v>
       </c>
-      <c r="J44" s="67">
+      <c r="J44" s="65">
         <v>1</v>
       </c>
       <c r="K44" s="30"/>
@@ -44259,7 +44318,7 @@
         <f t="shared" si="42"/>
         <v>4</v>
       </c>
-      <c r="V44" s="66">
+      <c r="V44" s="64">
         <f t="shared" si="43"/>
         <v>75</v>
       </c>
@@ -44267,34 +44326,34 @@
       <c r="Y44" s="21"/>
     </row>
     <row r="45" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A45" s="67">
+      <c r="A45" s="65">
         <v>4</v>
       </c>
-      <c r="B45" s="67">
+      <c r="B45" s="65">
         <v>4</v>
       </c>
-      <c r="C45" s="67">
+      <c r="C45" s="65">
         <v>3</v>
       </c>
-      <c r="D45" s="67">
+      <c r="D45" s="65">
         <v>2</v>
       </c>
-      <c r="E45" s="67">
+      <c r="E45" s="65">
         <v>2</v>
       </c>
-      <c r="F45" s="67">
+      <c r="F45" s="65">
         <v>4</v>
       </c>
-      <c r="G45" s="67">
+      <c r="G45" s="65">
         <v>4</v>
       </c>
-      <c r="H45" s="67">
+      <c r="H45" s="65">
         <v>4</v>
       </c>
-      <c r="I45" s="67">
+      <c r="I45" s="65">
         <v>3</v>
       </c>
-      <c r="J45" s="67">
+      <c r="J45" s="65">
         <v>2</v>
       </c>
       <c r="K45" s="30"/>
@@ -44338,7 +44397,7 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="V45" s="66">
+      <c r="V45" s="64">
         <f t="shared" si="43"/>
         <v>50</v>
       </c>
@@ -44346,32 +44405,32 @@
       <c r="Y45" s="21"/>
     </row>
     <row r="46" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A46" s="67">
+      <c r="A46" s="65">
         <v>4</v>
       </c>
-      <c r="B46" s="67">
+      <c r="B46" s="65">
         <v>2</v>
       </c>
-      <c r="C46" s="67">
+      <c r="C46" s="65">
         <v>4</v>
       </c>
-      <c r="D46" s="67">
+      <c r="D46" s="65">
         <v>2</v>
       </c>
-      <c r="E46" s="67">
+      <c r="E46" s="65">
         <v>3</v>
       </c>
-      <c r="F46" s="67">
+      <c r="F46" s="65">
         <v>1</v>
       </c>
-      <c r="G46" s="67">
+      <c r="G46" s="65">
         <v>5</v>
       </c>
-      <c r="H46" s="68"/>
-      <c r="I46" s="67">
+      <c r="H46" s="66"/>
+      <c r="I46" s="65">
         <v>2</v>
       </c>
-      <c r="J46" s="67">
+      <c r="J46" s="65">
         <v>1</v>
       </c>
       <c r="K46" s="30"/>
@@ -44415,7 +44474,7 @@
         <f t="shared" si="42"/>
         <v>4</v>
       </c>
-      <c r="V46" s="66">
+      <c r="V46" s="64">
         <f t="shared" si="43"/>
         <v>80</v>
       </c>
@@ -44423,34 +44482,34 @@
       <c r="Y46" s="21"/>
     </row>
     <row r="47" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A47" s="67">
+      <c r="A47" s="65">
         <v>2</v>
       </c>
-      <c r="B47" s="67">
+      <c r="B47" s="65">
         <v>2</v>
       </c>
-      <c r="C47" s="67">
+      <c r="C47" s="65">
         <v>2</v>
       </c>
-      <c r="D47" s="67">
+      <c r="D47" s="65">
         <v>4</v>
       </c>
-      <c r="E47" s="67">
+      <c r="E47" s="65">
         <v>3</v>
       </c>
-      <c r="F47" s="67">
+      <c r="F47" s="65">
         <v>4</v>
       </c>
-      <c r="G47" s="67">
+      <c r="G47" s="65">
         <v>5</v>
       </c>
-      <c r="H47" s="67">
+      <c r="H47" s="65">
         <v>3</v>
       </c>
-      <c r="I47" s="67">
+      <c r="I47" s="65">
         <v>3</v>
       </c>
-      <c r="J47" s="67">
+      <c r="J47" s="65">
         <v>2</v>
       </c>
       <c r="K47" s="30"/>
@@ -44494,7 +44553,7 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="V47" s="66">
+      <c r="V47" s="64">
         <f t="shared" si="43"/>
         <v>50</v>
       </c>
@@ -44502,34 +44561,34 @@
       <c r="Y47" s="21"/>
     </row>
     <row r="48" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A48" s="67">
+      <c r="A48" s="65">
         <v>4</v>
       </c>
-      <c r="B48" s="67">
+      <c r="B48" s="65">
         <v>2</v>
       </c>
-      <c r="C48" s="67">
+      <c r="C48" s="65">
         <v>4</v>
       </c>
-      <c r="D48" s="67">
+      <c r="D48" s="65">
         <v>2</v>
       </c>
-      <c r="E48" s="67">
+      <c r="E48" s="65">
         <v>5</v>
       </c>
-      <c r="F48" s="67">
+      <c r="F48" s="65">
         <v>5</v>
       </c>
-      <c r="G48" s="67">
+      <c r="G48" s="65">
         <v>5</v>
       </c>
-      <c r="H48" s="67">
+      <c r="H48" s="65">
         <v>1</v>
       </c>
-      <c r="I48" s="67">
+      <c r="I48" s="65">
         <v>5</v>
       </c>
-      <c r="J48" s="67">
+      <c r="J48" s="65">
         <v>2</v>
       </c>
       <c r="K48" s="30"/>
@@ -44573,7 +44632,7 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="V48" s="66">
+      <c r="V48" s="64">
         <f t="shared" si="43"/>
         <v>77.5</v>
       </c>
@@ -44581,34 +44640,34 @@
       <c r="Y48" s="21"/>
     </row>
     <row r="49" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A49" s="67">
+      <c r="A49" s="65">
         <v>3</v>
       </c>
-      <c r="B49" s="67">
+      <c r="B49" s="65">
         <v>2</v>
       </c>
-      <c r="C49" s="67">
+      <c r="C49" s="65">
         <v>4</v>
       </c>
-      <c r="D49" s="67">
+      <c r="D49" s="65">
         <v>2</v>
       </c>
-      <c r="E49" s="67">
+      <c r="E49" s="65">
         <v>4</v>
       </c>
-      <c r="F49" s="67">
+      <c r="F49" s="65">
         <v>3</v>
       </c>
-      <c r="G49" s="67">
+      <c r="G49" s="65">
         <v>4</v>
       </c>
-      <c r="H49" s="67">
+      <c r="H49" s="65">
         <v>3</v>
       </c>
-      <c r="I49" s="67">
+      <c r="I49" s="65">
         <v>4</v>
       </c>
-      <c r="J49" s="67">
+      <c r="J49" s="65">
         <v>2</v>
       </c>
       <c r="K49" s="30"/>
@@ -44652,7 +44711,7 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="V49" s="66">
+      <c r="V49" s="64">
         <f t="shared" si="43"/>
         <v>67.5</v>
       </c>
@@ -44660,34 +44719,34 @@
       <c r="Y49" s="21"/>
     </row>
     <row r="50" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A50" s="67">
+      <c r="A50" s="65">
         <v>4</v>
       </c>
-      <c r="B50" s="67">
+      <c r="B50" s="65">
         <v>2</v>
       </c>
-      <c r="C50" s="67">
+      <c r="C50" s="65">
         <v>4</v>
       </c>
-      <c r="D50" s="67">
+      <c r="D50" s="65">
         <v>2</v>
       </c>
-      <c r="E50" s="67">
+      <c r="E50" s="65">
         <v>5</v>
       </c>
-      <c r="F50" s="67">
+      <c r="F50" s="65">
         <v>1</v>
       </c>
-      <c r="G50" s="67">
+      <c r="G50" s="65">
         <v>3</v>
       </c>
-      <c r="H50" s="67">
+      <c r="H50" s="65">
         <v>4</v>
       </c>
-      <c r="I50" s="67">
+      <c r="I50" s="65">
         <v>5</v>
       </c>
-      <c r="J50" s="67">
+      <c r="J50" s="65">
         <v>3</v>
       </c>
       <c r="K50" s="30"/>
@@ -44731,7 +44790,7 @@
         <f t="shared" si="42"/>
         <v>2</v>
       </c>
-      <c r="V50" s="66">
+      <c r="V50" s="64">
         <f t="shared" si="43"/>
         <v>72.5</v>
       </c>
@@ -44739,34 +44798,34 @@
       <c r="Y50" s="21"/>
     </row>
     <row r="51" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A51" s="67">
+      <c r="A51" s="65">
         <v>3</v>
       </c>
-      <c r="B51" s="67">
+      <c r="B51" s="65">
         <v>1</v>
       </c>
-      <c r="C51" s="67">
+      <c r="C51" s="65">
         <v>3</v>
       </c>
-      <c r="D51" s="67">
+      <c r="D51" s="65">
         <v>1</v>
       </c>
-      <c r="E51" s="67">
+      <c r="E51" s="65">
         <v>4</v>
       </c>
-      <c r="F51" s="67">
+      <c r="F51" s="65">
         <v>1</v>
       </c>
-      <c r="G51" s="67">
+      <c r="G51" s="65">
         <v>4</v>
       </c>
-      <c r="H51" s="67">
+      <c r="H51" s="65">
         <v>2</v>
       </c>
-      <c r="I51" s="67">
+      <c r="I51" s="65">
         <v>4</v>
       </c>
-      <c r="J51" s="67">
+      <c r="J51" s="65">
         <v>1</v>
       </c>
       <c r="K51" s="30"/>
@@ -44810,7 +44869,7 @@
         <f t="shared" si="42"/>
         <v>4</v>
       </c>
-      <c r="V51" s="66">
+      <c r="V51" s="64">
         <f t="shared" si="43"/>
         <v>80</v>
       </c>
@@ -44827,30 +44886,30 @@
       <c r="Y52" s="21"/>
     </row>
     <row r="53" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="70" t="s">
+      <c r="A53" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="B53" s="70"/>
-      <c r="C53" s="70"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="70"/>
-      <c r="J53" s="70"/>
-      <c r="K53" s="70"/>
-      <c r="L53" s="70"/>
-      <c r="M53" s="70"/>
-      <c r="N53" s="70"/>
-      <c r="O53" s="70"/>
-      <c r="P53" s="70"/>
-      <c r="Q53" s="70"/>
-      <c r="R53" s="70"/>
-      <c r="S53" s="70"/>
-      <c r="T53" s="70"/>
-      <c r="U53" s="70"/>
-      <c r="V53" s="69"/>
+      <c r="B53" s="81"/>
+      <c r="C53" s="81"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="81"/>
+      <c r="I53" s="81"/>
+      <c r="J53" s="81"/>
+      <c r="K53" s="81"/>
+      <c r="L53" s="81"/>
+      <c r="M53" s="81"/>
+      <c r="N53" s="81"/>
+      <c r="O53" s="81"/>
+      <c r="P53" s="81"/>
+      <c r="Q53" s="81"/>
+      <c r="R53" s="81"/>
+      <c r="S53" s="81"/>
+      <c r="T53" s="81"/>
+      <c r="U53" s="81"/>
+      <c r="V53" s="67"/>
       <c r="X53" s="20"/>
       <c r="Y53" s="21"/>
     </row>
@@ -44923,34 +44982,34 @@
       <c r="Y54" s="21"/>
     </row>
     <row r="55" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A55" s="65">
+      <c r="A55" s="63">
         <v>4</v>
       </c>
-      <c r="B55" s="65">
+      <c r="B55" s="63">
         <v>2</v>
       </c>
-      <c r="C55" s="65">
+      <c r="C55" s="63">
         <v>4</v>
       </c>
-      <c r="D55" s="65">
+      <c r="D55" s="63">
         <v>3</v>
       </c>
-      <c r="E55" s="65">
+      <c r="E55" s="63">
         <v>4</v>
       </c>
-      <c r="F55" s="65">
+      <c r="F55" s="63">
         <v>2</v>
       </c>
-      <c r="G55" s="65">
+      <c r="G55" s="63">
         <v>3</v>
       </c>
-      <c r="H55" s="65">
+      <c r="H55" s="63">
         <v>2</v>
       </c>
-      <c r="I55" s="65">
+      <c r="I55" s="63">
         <v>3</v>
       </c>
-      <c r="J55" s="65">
+      <c r="J55" s="63">
         <v>2</v>
       </c>
       <c r="K55" s="30"/>
@@ -44994,7 +45053,7 @@
         <f>5-J55</f>
         <v>3</v>
       </c>
-      <c r="V55" s="66">
+      <c r="V55" s="64">
         <f>SUM(L55:U55)*2.5</f>
         <v>67.5</v>
       </c>
@@ -45002,34 +45061,34 @@
       <c r="Y55" s="21"/>
     </row>
     <row r="56" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A56" s="65">
+      <c r="A56" s="63">
         <v>2</v>
       </c>
-      <c r="B56" s="65">
+      <c r="B56" s="63">
         <v>2</v>
       </c>
-      <c r="C56" s="65">
+      <c r="C56" s="63">
         <v>2</v>
       </c>
-      <c r="D56" s="65">
+      <c r="D56" s="63">
         <v>4</v>
       </c>
-      <c r="E56" s="65">
+      <c r="E56" s="63">
         <v>3</v>
       </c>
-      <c r="F56" s="65">
+      <c r="F56" s="63">
         <v>4</v>
       </c>
-      <c r="G56" s="65">
+      <c r="G56" s="63">
         <v>2</v>
       </c>
-      <c r="H56" s="65">
+      <c r="H56" s="63">
         <v>4</v>
       </c>
-      <c r="I56" s="65">
+      <c r="I56" s="63">
         <v>2</v>
       </c>
-      <c r="J56" s="65">
+      <c r="J56" s="63">
         <v>4</v>
       </c>
       <c r="K56" s="30"/>
@@ -45073,7 +45132,7 @@
         <f t="shared" ref="U56:U63" si="53">5-J56</f>
         <v>1</v>
       </c>
-      <c r="V56" s="66">
+      <c r="V56" s="64">
         <f t="shared" ref="V56:V63" si="54">SUM(L56:U56)*2.5</f>
         <v>32.5</v>
       </c>
@@ -45081,34 +45140,34 @@
       <c r="Y56" s="21"/>
     </row>
     <row r="57" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A57" s="65">
+      <c r="A57" s="63">
         <v>3</v>
       </c>
-      <c r="B57" s="65">
+      <c r="B57" s="63">
         <v>2</v>
       </c>
-      <c r="C57" s="65">
+      <c r="C57" s="63">
         <v>2</v>
       </c>
-      <c r="D57" s="65">
+      <c r="D57" s="63">
         <v>5</v>
       </c>
-      <c r="E57" s="65">
+      <c r="E57" s="63">
         <v>5</v>
       </c>
-      <c r="F57" s="65">
+      <c r="F57" s="63">
         <v>2</v>
       </c>
-      <c r="G57" s="65">
+      <c r="G57" s="63">
         <v>2</v>
       </c>
-      <c r="H57" s="65">
+      <c r="H57" s="63">
         <v>2</v>
       </c>
-      <c r="I57" s="65">
+      <c r="I57" s="63">
         <v>2</v>
       </c>
-      <c r="J57" s="65">
+      <c r="J57" s="63">
         <v>5</v>
       </c>
       <c r="K57" s="30"/>
@@ -45152,7 +45211,7 @@
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="V57" s="66">
+      <c r="V57" s="64">
         <f t="shared" si="54"/>
         <v>45</v>
       </c>
@@ -45160,34 +45219,34 @@
       <c r="Y57" s="21"/>
     </row>
     <row r="58" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A58" s="65">
+      <c r="A58" s="63">
         <v>1</v>
       </c>
-      <c r="B58" s="65">
+      <c r="B58" s="63">
         <v>4</v>
       </c>
-      <c r="C58" s="65">
+      <c r="C58" s="63">
         <v>2</v>
       </c>
-      <c r="D58" s="65">
+      <c r="D58" s="63">
         <v>4</v>
       </c>
-      <c r="E58" s="65">
+      <c r="E58" s="63">
         <v>3</v>
       </c>
-      <c r="F58" s="65">
+      <c r="F58" s="63">
         <v>5</v>
       </c>
-      <c r="G58" s="65">
+      <c r="G58" s="63">
         <v>2</v>
       </c>
-      <c r="H58" s="65">
+      <c r="H58" s="63">
         <v>4</v>
       </c>
-      <c r="I58" s="65">
+      <c r="I58" s="63">
         <v>2</v>
       </c>
-      <c r="J58" s="65">
+      <c r="J58" s="63">
         <v>4</v>
       </c>
       <c r="K58" s="30"/>
@@ -45231,7 +45290,7 @@
         <f t="shared" si="53"/>
         <v>1</v>
       </c>
-      <c r="V58" s="66">
+      <c r="V58" s="64">
         <f t="shared" si="54"/>
         <v>22.5</v>
       </c>
@@ -45239,34 +45298,34 @@
       <c r="Y58" s="21"/>
     </row>
     <row r="59" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A59" s="65">
+      <c r="A59" s="63">
         <v>4</v>
       </c>
-      <c r="B59" s="65">
+      <c r="B59" s="63">
         <v>3</v>
       </c>
-      <c r="C59" s="65">
+      <c r="C59" s="63">
         <v>3</v>
       </c>
-      <c r="D59" s="65">
+      <c r="D59" s="63">
         <v>4</v>
       </c>
-      <c r="E59" s="65">
+      <c r="E59" s="63">
         <v>5</v>
       </c>
-      <c r="F59" s="65">
+      <c r="F59" s="63">
         <v>3</v>
       </c>
-      <c r="G59" s="65">
+      <c r="G59" s="63">
         <v>4</v>
       </c>
-      <c r="H59" s="65">
+      <c r="H59" s="63">
         <v>3</v>
       </c>
-      <c r="I59" s="65">
+      <c r="I59" s="63">
         <v>4</v>
       </c>
-      <c r="J59" s="65">
+      <c r="J59" s="63">
         <v>3</v>
       </c>
       <c r="K59" s="30"/>
@@ -45310,7 +45369,7 @@
         <f t="shared" si="53"/>
         <v>2</v>
       </c>
-      <c r="V59" s="66">
+      <c r="V59" s="64">
         <f t="shared" si="54"/>
         <v>60</v>
       </c>
@@ -45318,34 +45377,34 @@
       <c r="Y59" s="21"/>
     </row>
     <row r="60" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A60" s="65">
+      <c r="A60" s="63">
         <v>1</v>
       </c>
-      <c r="B60" s="65">
+      <c r="B60" s="63">
         <v>3</v>
       </c>
-      <c r="C60" s="65">
+      <c r="C60" s="63">
         <v>1</v>
       </c>
-      <c r="D60" s="65">
+      <c r="D60" s="63">
         <v>2</v>
       </c>
-      <c r="E60" s="65">
+      <c r="E60" s="63">
         <v>2</v>
       </c>
-      <c r="F60" s="65">
+      <c r="F60" s="63">
         <v>5</v>
       </c>
-      <c r="G60" s="65">
+      <c r="G60" s="63">
         <v>2</v>
       </c>
-      <c r="H60" s="65">
+      <c r="H60" s="63">
         <v>5</v>
       </c>
-      <c r="I60" s="65">
+      <c r="I60" s="63">
         <v>3</v>
       </c>
-      <c r="J60" s="65">
+      <c r="J60" s="63">
         <v>1</v>
       </c>
       <c r="K60" s="30"/>
@@ -45389,7 +45448,7 @@
         <f t="shared" si="53"/>
         <v>4</v>
       </c>
-      <c r="V60" s="66">
+      <c r="V60" s="64">
         <f t="shared" si="54"/>
         <v>32.5</v>
       </c>
@@ -45397,34 +45456,34 @@
       <c r="Y60" s="21"/>
     </row>
     <row r="61" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A61" s="65">
+      <c r="A61" s="63">
         <v>1</v>
       </c>
-      <c r="B61" s="65">
+      <c r="B61" s="63">
         <v>3</v>
       </c>
-      <c r="C61" s="65">
+      <c r="C61" s="63">
         <v>1</v>
       </c>
-      <c r="D61" s="65">
+      <c r="D61" s="63">
         <v>4</v>
       </c>
-      <c r="E61" s="65">
+      <c r="E61" s="63">
         <v>3</v>
       </c>
-      <c r="F61" s="65">
+      <c r="F61" s="63">
         <v>3</v>
       </c>
-      <c r="G61" s="65">
+      <c r="G61" s="63">
         <v>3</v>
       </c>
-      <c r="H61" s="65">
+      <c r="H61" s="63">
         <v>4</v>
       </c>
-      <c r="I61" s="65">
+      <c r="I61" s="63">
         <v>4</v>
       </c>
-      <c r="J61" s="65">
+      <c r="J61" s="63">
         <v>3</v>
       </c>
       <c r="K61" s="30"/>
@@ -45468,7 +45527,7 @@
         <f t="shared" si="53"/>
         <v>2</v>
       </c>
-      <c r="V61" s="66">
+      <c r="V61" s="64">
         <f t="shared" si="54"/>
         <v>37.5</v>
       </c>
@@ -45476,34 +45535,34 @@
       <c r="Y61" s="21"/>
     </row>
     <row r="62" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A62" s="65">
+      <c r="A62" s="63">
         <v>3</v>
       </c>
-      <c r="B62" s="65">
+      <c r="B62" s="63">
         <v>4</v>
       </c>
-      <c r="C62" s="65">
+      <c r="C62" s="63">
         <v>2</v>
       </c>
-      <c r="D62" s="65">
+      <c r="D62" s="63">
         <v>3</v>
       </c>
-      <c r="E62" s="65">
+      <c r="E62" s="63">
         <v>2</v>
       </c>
-      <c r="F62" s="65">
+      <c r="F62" s="63">
         <v>2</v>
       </c>
-      <c r="G62" s="65">
+      <c r="G62" s="63">
         <v>4</v>
       </c>
-      <c r="H62" s="65">
+      <c r="H62" s="63">
         <v>5</v>
       </c>
-      <c r="I62" s="65">
+      <c r="I62" s="63">
         <v>3</v>
       </c>
-      <c r="J62" s="65">
+      <c r="J62" s="63">
         <v>1</v>
       </c>
       <c r="K62" s="30"/>
@@ -45547,7 +45606,7 @@
         <f t="shared" si="53"/>
         <v>4</v>
       </c>
-      <c r="V62" s="66">
+      <c r="V62" s="64">
         <f t="shared" si="54"/>
         <v>47.5</v>
       </c>
@@ -45555,34 +45614,34 @@
       <c r="Y62" s="21"/>
     </row>
     <row r="63" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A63" s="65">
+      <c r="A63" s="63">
         <v>2</v>
       </c>
-      <c r="B63" s="65">
+      <c r="B63" s="63">
         <v>4</v>
       </c>
-      <c r="C63" s="65">
+      <c r="C63" s="63">
         <v>2</v>
       </c>
-      <c r="D63" s="65">
+      <c r="D63" s="63">
         <v>5</v>
       </c>
-      <c r="E63" s="65">
+      <c r="E63" s="63">
         <v>4</v>
       </c>
-      <c r="F63" s="65">
+      <c r="F63" s="63">
         <v>5</v>
       </c>
-      <c r="G63" s="65">
+      <c r="G63" s="63">
         <v>4</v>
       </c>
-      <c r="H63" s="65">
+      <c r="H63" s="63">
         <v>4</v>
       </c>
-      <c r="I63" s="65">
+      <c r="I63" s="63">
         <v>2</v>
       </c>
-      <c r="J63" s="65">
+      <c r="J63" s="63">
         <v>5</v>
       </c>
       <c r="K63" s="30"/>
@@ -45626,7 +45685,7 @@
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="V63" s="66">
+      <c r="V63" s="64">
         <f t="shared" si="54"/>
         <v>27.5</v>
       </c>
@@ -46342,7 +46401,7 @@
   <dimension ref="B1:W51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -46359,36 +46418,37 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="2:23" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B2" s="72" t="s">
+    <row r="2" spans="2:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="72" t="s">
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="J2" s="72" t="s">
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="V2" s="71" t="s">
-        <v>364</v>
-      </c>
-      <c r="W2" s="71"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="V2" s="82" t="s">
+        <v>363</v>
+      </c>
+      <c r="W2" s="82"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B3" s="30"/>
       <c r="C3" s="30">
         <v>82.5</v>
       </c>
-      <c r="D3" s="36"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="36"/>
+      <c r="F3" s="34"/>
       <c r="G3" s="30">
         <v>67.5</v>
       </c>
@@ -46410,9 +46470,9 @@
       <c r="C4" s="30">
         <v>72.5</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="36"/>
+      <c r="F4" s="34"/>
       <c r="G4" s="30">
         <v>52.5</v>
       </c>
@@ -46434,9 +46494,9 @@
       <c r="C5" s="30">
         <v>80</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="36"/>
+      <c r="F5" s="34"/>
       <c r="G5" s="30">
         <v>45</v>
       </c>
@@ -46458,9 +46518,9 @@
       <c r="C6" s="30">
         <v>92.5</v>
       </c>
-      <c r="D6" s="36"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="36"/>
+      <c r="F6" s="34"/>
       <c r="G6" s="30">
         <v>20</v>
       </c>
@@ -46482,9 +46542,9 @@
       <c r="C7" s="30">
         <v>70</v>
       </c>
-      <c r="D7" s="36"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="36"/>
+      <c r="F7" s="34"/>
       <c r="G7" s="30">
         <v>22.5</v>
       </c>
@@ -46506,9 +46566,9 @@
       <c r="C8" s="30">
         <v>85</v>
       </c>
-      <c r="D8" s="36"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="36"/>
+      <c r="F8" s="34"/>
       <c r="G8" s="30">
         <v>30</v>
       </c>
@@ -46530,9 +46590,9 @@
       <c r="C9" s="30">
         <v>75</v>
       </c>
-      <c r="D9" s="36"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="36"/>
+      <c r="F9" s="34"/>
       <c r="G9" s="30">
         <v>32.5</v>
       </c>
@@ -46554,9 +46614,9 @@
       <c r="C10" s="30">
         <v>77.5</v>
       </c>
-      <c r="D10" s="36"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="36"/>
+      <c r="F10" s="34"/>
       <c r="G10" s="30">
         <v>50</v>
       </c>
@@ -46576,9 +46636,9 @@
       <c r="C11" s="30">
         <v>70</v>
       </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="36"/>
+      <c r="F11" s="34"/>
       <c r="G11" s="30">
         <v>60</v>
       </c>
@@ -46598,9 +46658,9 @@
       <c r="C12" s="30">
         <v>72.5</v>
       </c>
-      <c r="D12" s="36"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="36"/>
+      <c r="F12" s="34"/>
       <c r="G12" s="30">
         <v>42.5</v>
       </c>
@@ -46618,9 +46678,9 @@
     <row r="13" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
-      <c r="D13" s="36"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="36"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="30">
         <v>45</v>
       </c>
@@ -46638,9 +46698,9 @@
     <row r="14" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="36"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="36"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>
       <c r="J14" s="30"/>
@@ -46657,11 +46717,11 @@
       <c r="B15" s="27" t="s">
         <v>350</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="104">
         <f>AVERAGE(C3:C12)</f>
         <v>77.75</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="105">
         <v>0</v>
       </c>
       <c r="F15" s="27" t="s">
@@ -46695,11 +46755,11 @@
       <c r="B16" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="104">
         <f>C15</f>
         <v>77.75</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="28">
         <v>100</v>
       </c>
       <c r="F16" s="22" t="s">
@@ -46747,27 +46807,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="2:23" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B19" s="72" t="s">
+    <row r="19" spans="2:23" ht="27.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="102" t="s">
         <v>308</v>
       </c>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="72" t="s">
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="103" t="s">
         <v>355</v>
       </c>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B20" s="30"/>
       <c r="C20" s="30">
         <v>65</v>
       </c>
-      <c r="D20" s="36"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="36"/>
+      <c r="F20" s="34"/>
       <c r="G20" s="30">
         <v>67.5</v>
       </c>
@@ -46778,9 +46838,9 @@
       <c r="C21" s="30">
         <v>65</v>
       </c>
-      <c r="D21" s="36"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="36"/>
+      <c r="F21" s="34"/>
       <c r="G21" s="30">
         <v>32.5</v>
       </c>
@@ -46791,9 +46851,9 @@
       <c r="C22" s="30">
         <v>62.5</v>
       </c>
-      <c r="D22" s="36"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="36"/>
+      <c r="F22" s="34"/>
       <c r="G22" s="30">
         <v>45</v>
       </c>
@@ -46804,9 +46864,9 @@
       <c r="C23" s="30">
         <v>87.5</v>
       </c>
-      <c r="D23" s="36"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="36"/>
+      <c r="F23" s="34"/>
       <c r="G23" s="30">
         <v>22.5</v>
       </c>
@@ -46817,9 +46877,9 @@
       <c r="C24" s="30">
         <v>75</v>
       </c>
-      <c r="D24" s="36"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="36"/>
+      <c r="F24" s="34"/>
       <c r="G24" s="30">
         <v>60</v>
       </c>
@@ -46830,9 +46890,9 @@
       <c r="C25" s="30">
         <v>50</v>
       </c>
-      <c r="D25" s="36"/>
+      <c r="D25" s="34"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="36"/>
+      <c r="F25" s="34"/>
       <c r="G25" s="30">
         <v>32.5</v>
       </c>
@@ -46843,9 +46903,9 @@
       <c r="C26" s="30">
         <v>80</v>
       </c>
-      <c r="D26" s="36"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="36"/>
+      <c r="F26" s="34"/>
       <c r="G26" s="30">
         <v>37.5</v>
       </c>
@@ -46856,9 +46916,9 @@
       <c r="C27" s="30">
         <v>50</v>
       </c>
-      <c r="D27" s="36"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="36"/>
+      <c r="F27" s="34"/>
       <c r="G27" s="30">
         <v>47.5</v>
       </c>
@@ -46869,9 +46929,9 @@
       <c r="C28" s="30">
         <v>77.5</v>
       </c>
-      <c r="D28" s="36"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="36"/>
+      <c r="F28" s="34"/>
       <c r="G28" s="30">
         <v>27.5</v>
       </c>
@@ -46882,9 +46942,9 @@
       <c r="C29" s="30">
         <v>67.5</v>
       </c>
-      <c r="D29" s="36"/>
+      <c r="D29" s="34"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="36"/>
+      <c r="F29" s="34"/>
       <c r="G29" s="30"/>
       <c r="H29" s="30"/>
     </row>
@@ -46893,9 +46953,9 @@
       <c r="C30" s="30">
         <v>72.5</v>
       </c>
-      <c r="D30" s="36"/>
+      <c r="D30" s="34"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="36"/>
+      <c r="F30" s="34"/>
       <c r="G30" s="30"/>
       <c r="H30" s="30"/>
     </row>
@@ -46904,18 +46964,18 @@
       <c r="C31" s="30">
         <v>80</v>
       </c>
-      <c r="D31" s="36"/>
+      <c r="D31" s="34"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="36"/>
+      <c r="F31" s="34"/>
       <c r="G31" s="30"/>
       <c r="H31" s="30"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
-      <c r="D32" s="36"/>
+      <c r="D32" s="34"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="36"/>
+      <c r="F32" s="34"/>
       <c r="G32" s="30"/>
       <c r="H32" s="30"/>
     </row>
